--- a/text-resources/Sindhi/District specific.xlsx
+++ b/text-resources/Sindhi/District specific.xlsx
@@ -5,6 +5,9 @@
   <sheets>
     <sheet state="visible" name="Maharashtra" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Gujarat" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Madhya Pradesh" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Rajasthan" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Delhi" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="452">
   <si>
     <t>Question_ID</t>
   </si>
@@ -885,13 +888,496 @@
   </si>
   <si>
     <t>गौरव चौधरी, नीना वर्मा, राजीव पॉल, प्रिया वाल, पराग अग्रवाल, काबिल अजमेरी, अलीमुद्दीन, जहांआरा बेगम, मन्नू भंडारी, पुष्पा मित्रा भार्गव, भानु भारती, बासु चटर्जी, गौरव चौधरी, वासुदेव देवनानी, यशिका दत्त, महेंद्र गौड़, मानवेंद्र सिंह गोहिल, मनोहर श्याम जोशी, अकरम खातून</t>
+  </si>
+  <si>
+    <t>Bhopal/भोपाल</t>
+  </si>
+  <si>
+    <t>Jabalpur/जबलपुर</t>
+  </si>
+  <si>
+    <t>Katni</t>
+  </si>
+  <si>
+    <t>बासमती चावल, सोयाबीन, शर्बती गेहूं, मक्का, अनाज  में ज्वार , चना, तुर, उड़द, मूंग, मूंगफली, सरसों, आलू, प्याज, लहसुन, पपीता, केला, संतरे, आम, अंगूर</t>
+  </si>
+  <si>
+    <t>गेहूं, धान, हरी मटर, देसी चना, अरहर, सोयाबीन, मक्का, चना, मटर, सरसों , कपास, जूट और मेस्ता, दाल, अनाज और चारे, मूंगफली, सोयाबीन, सूरजमुखी, तिसी, केला, सीताफल, अमरुद, पपीता, सूखी लाल मिर्च, लहसुन, अदरक, हल्दी, बैंगन, पत्तागोभी, हरी मिर्च, प्याज, आलू, शकरकंद, लौकी</t>
+  </si>
+  <si>
+    <t>धान , गेहूं, चना, दाल, जूट और मेस्टा, मूंगफली, सोयाबीन, सूरजमुखी, केला, सीताफल, अमरूद, आम, पपीता, बैगन, पत्तागोभी, फूलगोभी, हरी मिर्च, भिंडी, प्याज, आलू, शकरकंद, टमाटर</t>
+  </si>
+  <si>
+    <t>श्री मनोरा मेला विदिशा, बंधरा बंध घाट मेला, उर्स राजगढ़, सांची महोत्सव रायसेन, भोपाल उत्सव मेला भोपाल, लोकरंग फेस्टिवल, खजुराहो फेस्टिवल, भगोरिया हाट फेस्टिवल, होली, उज्जैन कुंभ मेला, दशहरा, दीवाली, चेतियागिरी विहारा फेस्टिवल, फिल्म फेस्टिवल, भारत भवन, राष्ट्रीय आलंकरण समारोह, अलाउद्दीन खान व्याख्यानमाला, अमीर खान फेस्टिवल, ध्रुपद समारोह</t>
+  </si>
+  <si>
+    <t>नर्मदा जयंती, हनुमान जन्म उत्सव, कैमोर कटनी का दशहरा, महादेव मेला, नर्मदा जयंती, पोला त्योहार, बरमां मेला, मकर संक्रांति, रमजान, बकड़, क्रिसमस, गणेश चतुर्थी, लोकरंग फेस्टिवल, मालवा उत्सव, मीमार उत्सव, ट्राइबल  फिल्म फेस्टिवल</t>
+  </si>
+  <si>
+    <t>किमोर का दशहरा , नर्मदा जयंती, हनुमान जन्म उत्सव, किमोर का दशहरा  कटनी, महादेव मेला, पोला त्योहार, बरमां मेला, मकर संक्रांति, रमजान, क्रिसमस, गणेश चतुर्थी, लोकरंग फेस्टिवल, मालवा उत्सव, फ़िल्म फ़ेस्टिवल, दिवाली, रक्षा बंधन, महाशिवरात्रि त्योहार, मकर संक्रांति</t>
+  </si>
+  <si>
+    <t>परमार राजा भोज, भूपाल नाम  के राजा, गोंड राज्य, दोस्त मोहम्मद खान, गोंड की रानी कमलापति, बेगम शासन, ब्रिटिश ईस्ट इंडिया कंपनी, क़ुदसिया बेगम, शाहजहाँ की बेटी कैखुसरौ जहां, हमीदुल्लाह खान, शंकर दयाल शर्मा, भोपाल गैस त्रासदी, मिथाइल आइसोसायनेट</t>
+  </si>
+  <si>
+    <t>कालचुरी राजवंश, गोंडवाना साम्राज्य, रामायण, ब्रिटिश शासन, मौर्य साम्राज्य, सतवाहन राजवंश, गुप्त साम्राज्य, गोंड शासक, गोंड राजवंश, मराठा शासक, ब्रिटिश राज, कृषि उत्पाद, धूसर लोहे का फाउंड्री, बंदूक गाड़ी कारख़ाना, चूना उद्योग, खाद्य प्रसंस्करण उद्योग, रेशमखाना, वाणिज्यिक ऑटोमोबाइल</t>
+  </si>
+  <si>
+    <t>पुत्रक, पाटली , अजातशत्रु, गौतम बुद्ध, ब्रिटिश सरकार, संजय पाठक, बहोरीबंद, तिगवन, विजाराघवगढ़, रूपनाथ, बिल्हारी, झिंझारी, जैन तीर्थंकर शांतिनाथ, नारायण शैशयानी, जैनात और सर्वंथ , मौर्य साम्राज्य, सतवाहन वंश, चालुक्य वंश, रूपनाथ मंदिर</t>
+  </si>
+  <si>
+    <t>कॉटन टेक्सटाइल , जूट और इलेक्ट्रिकल उत्पाद, विद्युत उत्पादन, अनंत स्पिनिंग मिल्स, भास्कर इंडस्ट्रीज प्राइवेट लिमिटेड, पाल इंडस्ट्रीज, लक्ष्मी इंजीनियरिंग इंडस्ट्रीज, भाव्य इंडस्ट्रीज, दौलत राम इंडस्ट्रीज, मेक फैब इंडस्ट्रीज, कुमारन इंडस्ट्रीज, सुप्रीम प्लास्टिक इंडस्ट्रीज, कैलाश इंडस्ट्री, श्री साई इंडस्ट्री, अपर इंडस्ट्रीज लिमिटेड, कल्प वृक्ष इंडस्ट्री, पलाश इंडस्ट्रीज, महालक्ष्मी प्लास्टिक इंडस्ट्रीज, गोविंदपुरा इंडस्ट्रीज</t>
+  </si>
+  <si>
+    <t>नर्मदा जेलेटिन्स लिमिटेड, पैसिफिक आयरन मैन्युफैक्चरिंग लिमिटेड, अनिरुध फूड्स प्राइवेट लिमिटेड, साधना पैकेजिंग प्राइवेट लिमिटेड, अर्के प्रोडक्ट्स प्राइवेट लिमिटेड, अग्रवाल स्टील रीरोलिंग मिल, स्वरूप ऑटोमोबाइल्स, नेहा ज्वेलर्स, माँ रीवा ट्रेडर्स, तान्या इंडस्ट्रीज, आर.वी. टेक्स प्राइवेट लिमिटेड, विश्वकर्मा मेटल्स, महावीर मिल्क प्रोडक्ट, राइस मिल, कुश राइस मिल, गौतम एंटरप्राइजेस, कमला केमिकल्स, श्री हनुमान राइस मिल, माँ नर्मदा एग्रो फूड्स, हीरा पॉलिमर्स</t>
+  </si>
+  <si>
+    <t>काल्डेरीज इंडिया रिफ्रैक्टरीज लिमिटेड, अनिल इंडस्ट्रीज कटनी प्राइवेट लिमिटेड, साइना स्टील्स प्राइवेट लिमिटेड, महाकोशल रिफ्रैक्टरीज प्राइवेट लिमिटेड, अजय फूड प्रोडक्ट्स कटनी प्राइवेट लिमिटेड, दिवान इंडस्ट्रीज, महिमा मार्केटिंग, बालाजी व्हाइट सीमेंट प्राइवेट लिमिटेड, विक्टरी मिनरल्स प्राइवेट लिमिटेड, केवलानी एग्रो इंडस्ट्रीज प्राइवेट लिमिटेड, लक्ष्मी स्टील इंडस्ट्रीज, जय माता राइस एंड दाल  मिल, माहाजन वुड इंडस्ट्रीज, रुद्राक्ष राइस मिल, देवाशीश एंटरप्राइजेस, श्रीनिवासन इंडस्ट्रीज, द्वारका आयरन ट्रेडर्स, श्री पद्मा इंडस्ट्रीज, श्री प्रयाग इंडस्ट्रीज, चौरासिया फर्नीचर, किंग ऑप्टिकल्स</t>
+  </si>
+  <si>
+    <t>प्रशासनिक मुख्यालय, पांच जिले, भोपाल लोक सभा क्षेत्र, प्रज्ञा सिंह ठाकुर, राज्य विधान सभा, विधान सभा, भारतीय जनता पार्टी, शिवराज सिंह चौहान, नगर प्रशासन, प्रभाग, विभाग, ब्लॉक, पंचायत, ग्राम पंचायत, भोपाल नगर निगम, नगरीय सुविधाएं, मध्य क्षेत्र विद्युत वितरण कंपनी मर्यादित, आरिफ अक़ील, विश्वास सरंग, पी सी शर्मा, आरिफ मसूद, कृष्णा गौर, रमेश्वर शर्मा</t>
+  </si>
+  <si>
+    <t>गांव, नगर, उप-जिले, नगर निगम, पंचायत, सांसदीय निर्वाचन क्षेत्र, लोक सभा क्षेत्र, विधानसभा, तुलनात्मक राजनीति, अंतरराष्ट्रीय संबंध, सार्वजनिक नीति और प्रशासन, घरेलू राजनीति और सरकार, राजनीतिक अर्थशास्त्र, राजनीतिक तंत्र, राजनीति विज्ञान, पोलिटिकल एन्थ्रोपोलोजी , मनोविज्ञान</t>
+  </si>
+  <si>
+    <t>तहसील, लोकसभा सीट, विधानसभा चुनाव क्षेत्र, उप-जिले, शहर, गाँव, नगर निगम, ग्राम पंचायत, श्री अवि प्रसाद, श्री अविजीत कुमार रंजन, श्री गौरव शर्मा, श्री प्रमोद चतुर्वेदी, श्री सत्येन्द्र ढकरे, श्री कालू सिंह दामोर, श्री हरी सिंह</t>
+  </si>
+  <si>
+    <t>उपोष्णकटिबंधीय जलवायु, वर्षा का मौसम जून से सितंबर तक, मानसून का प्रारंभ अक्टूबर की शुरुआत, सूखे का मौसम अक्टूबर मध्य से मई तक, सर्दियों का मौसम नवंबर मध्य से फरवरी के अंत तक, सबसे गर्म महीना मार्च के मध्य से जून की शुरुआत तक, वर्षा भरे दिन जुलाई से सितंबर तक, उष्णकटिबंधीय चक्रवात अप्रैल से दिसंबर तक, सबसे ठंडा महीना जनवरी, वार्षिक औसत वर्षा 1300 मिमी</t>
+  </si>
+  <si>
+    <t>आर्द्र उपमहाद्वीपीय जलवायु, गर्मी मार्च के अंत में शुरू होती है, जून तक चलती है, मई सबसे गर्म महीना है, तापमान 40 °सी से अधिक होता है, सर्दियां नवंबर से फरवरी तक, मानसून जून से सितंबर, औसत वार्षिक वर्षा लगभग 1,386 मिमी है</t>
+  </si>
+  <si>
+    <t>गरम और मध्यम तापमान, सबसे गरम दिन मई महीने में हो सकता है, सबसे ठंडा दिन दिसंबर से फरवरी तक हो सकता है, सबसे बारिशी महीना जुलाई, जिले का वार्षिक तापमान 29.18ºc है, कटनी विशिष्ट रूप से लगभग 134.86 मिमी प्राप्त करता है</t>
+  </si>
+  <si>
+    <t>हिंदी, बोली जाने वाली अंग्रेज़ी, हिंदू धर्म, इस्लाम, जैन धर्म, ईसाई धर्म, बौद्ध धर्म, शाकाहारी, मांसाहारी, ईश्वर में विश्वास, परंपरागत संगीत, नृत्य, मंदिरों के त्योहार, पूर्वजों की प्रथाएँ</t>
+  </si>
+  <si>
+    <t>हिंदी, उर्दू, हिंदू, मुस्लिम, ईसाई, सिख, बौद्ध, जैन, शाकाहारी, गैर शाकाहारी, ईश्वर में विश्वास, पारंपरिक संगीत, नृत्य, मंदिर के त्योहार, पूर्वजों की प्रथाएं, आत्म अनुशासन, अच्छा आचरण, अध्ययन सर्कल, भक्ति गायन, ध्यान , समूह बैठक, रिट्रीट, शिविर, सम्मेलन</t>
+  </si>
+  <si>
+    <t>हिंदी, सिंधी, हिन्दू, मुस्लिम, ईसाई, सिख, बौद्ध, जैन, आत्म-नियंत्रण, अच्छा आचरण, अध्ययन समूह, भक्ति गान, ध्यान, समूह-मिलन, आश्रम, शिविर, सम्मेलन</t>
+  </si>
+  <si>
+    <t>एमपीएसआरटीसी  बस, आई 4 यू ट्रैवल सर्विसेज, जेएमडी दवार ट्रैवल्स, लोधी ट्रैवल्स, फील इंडिया टूर्स, श्री ट्रैवल्स, अशोका ट्रैवल्स, वसुंधरा ट्रैवल, ओम साई राम ट्रैवल्स, राजा भोज एयरपोर्ट, देवी अहिल्या बाई होलकर एयरपोर्ट, इंडीबी भोपाल एक्सप्रेस, महामना एक्सप्रेस, पी बी एच बी पी एल एक्सप्रेस, बीना बी पी एल एक्सप्रेस मेमू, इंडीबी इंटरसिटी, हैवरा भोपाल एक्सप्रेस, गोंडवाना एक्सप्रेस, चत्रपति शिवाजी महाराज टर्मिनस गोरखपुर जनसाधारण एक्सप्रेस, नर्मदा एक्सप्रेस, कामायनी एक्सप्रेस, केरला एक्सप्रेस, भोपाल एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>राष्ट्रीय राजमार्ग, राज्य सड़क, अधरताल रेलवे स्टेशन, बरगावां रेलवे स्टेशन, ग्वारीघाट रेलवे स्टेशन, होवबाग जबलपुर रेलवे स्टेशन, जबलपुर जंक्शन रेलवे स्टेशन, कटनी जंक्शन, दमोह जंक्शन, मैहर जंक्शन, पिपारिया जंक्शन, सतना जंक्शन, सौगोर जंक्शन, गदरवारा जंक्शन, कटनी मुरवारा जंक्शन, मदन महल जंक्शन, नरसिंहपुर जंक्शन, दुमना हवाई अड्डा, ताप्ती गंगा एक्सप्रेस, साकेत एसएफ एक्सप्रेस, काशी एक्सप्रेस, ताप्ती गंगा एक्सप्रेस, पवन एक्सप्रेस, इतवारी रीवा एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>ओएसआर टूर्स एंड ट्रैवल्स, चार्टर्ड बस, गौरा टूर्स एंड ट्रैवल्स, मोना गोल्डन ट्रांसपोर्ट, अरोड़ा ट्रैवल्स, झालावाड़ा रेलवे स्टेशन, कटनी जंक्शन रेलवे स्टेशन, कटनी मुरवारा जंक्शन रेलवे स्टेशन, माधवनगर रोड रेलवे स्टेशन, रूपाउंद रेलवे स्टेशन, विलायतकलां रोड रेलवे स्टेशन, निकटतम जबलपुर हवाई अड्डा, कटनी बीना पैसेंजर, चिरमिरी कटनी फास्ट पैसेंजर, इटारसी सतना पैसेंजर, शिप्रा एक्सप्रेस, एलटीटी एलडी एक्सप्रेस, रीवा इंडबी एक्सप्रेस, गोंडिया सीपीआर एक्सप्रेस, महाकोशल एक्सप्रेस, एनटीवी दुर्ग एक्सप्रेस, साकेत एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>भोजेश्वर मंदिर, गुफा मंदिर, श्री राधा कृष्ण मंदिर, इस्कॉन मंदिर भोपाल, बिड़ला मंदिर या लक्ष्मी नारायण मंदिर, मनुआ भान की टेकरी, खटला पुरा मंदिर, श्री मध्य स्वामी मलई मंदिर, गिन्नोरगढ़ किला, मध्य प्रदेश जनजातीय संग्रहालय, इंदिरा गांधी राष्ट्रीय मानव संग्रहालय - नेशनल म्यूजियम ऑफ़ मैनकाइंड , क्षेत्रीय विज्ञान केंद्र, बिड़ला संग्रहालय, रिमेम्बर भोपाल संग्रहालय, पुरातत्व संग्रहालय, सांची स्तूप, अपर लेक , रानी कमलापति महल, भीम बैठका</t>
+  </si>
+  <si>
+    <t>कचनार सिटी शिव मंदिर, हनुमंतल जैन मंदिर, गुरुद्वारा साहेब ग्वारीघाट, पाटबाबा मंदिर, शारदा देवी मंदिर, गुप्तेश्वर महादेव मंदिर, चौसठ योगिनी मंदिर, गुप्तेश्वर मंदिर, दुर्गा माता मंदिर, मां नर्मदा मंदिर, मदन महल किला, सिंहोरगढ़ किला, बांधवगढ़ किला, सनोधा किला, मैहर किला, रानी दुर्गावती संग्रहालय, शैक्षिक संग्रहालय, गौरव संग्रहालय संग्रहालय, बड़े देव जबलपुर संग्रहालय, घूघुआ फॉसिल पार्क संग्रहालय</t>
+  </si>
+  <si>
+    <t>माँ वैष्णव देवी धाम, राधा कृष्ण मंदिर, बदेरा चतुर्युग धाम, विष्णु वराह मंदिर, हनुमान मंदिर, हनुमान मंदिर, साई मंदिर, लक्ष्मी नारायण, सत्यनारायण मंदिर, श्री माँ वैष्णो देवी दुर्गोत्सव समिति, जगन्नाथ मंदिर, विजयराघवगढ़ किला, कामाकंडला किला, रानी दुर्गावती संग्रहालय</t>
+  </si>
+  <si>
+    <t>भेल डॉ. राधाकृष्णन गर्ल्स हायर सेकेंडरी स्कूल, होली क्रॉस को-एड स्कूल, बनयान ट्री स्कूल, कारमेल कॉन्वेंट सीनियर सेकेंडरी स्कूल, सेंट जोसेफ इंटरनेशनल स्कूल फॉर एक्सीलेंस, महर्षि सेंटर फॉर एजुकेशनल एक्सीलेंस, सेज इंटरनेशनल स्कूल, सागर पब्लिक स्कूल, कैम्पियन स्कूल, नेशनल लॉ इंस्टीट्यूट यूनिवर्सिटी, सेज यूनिवर्सिटी, इंस्टीट्यूट ऑफ होटेल मैनेजमेंट, जागरण लेकसिटी यूनिवर्सिटी, आर्य कॉलेज ऑफ इंजीनियरिंग आईटी, कमला नेहरू महाविद्यालय, रीजनल इंस्टीट्यूट ऑफ एजुकेशन, मान कॉलेज ऑफ पैरामेडिकल साइंसेज, मौलाना आज़ाद कॉलेज ऑफ टेक्नोलॉजी, आरकेडीएफ डेंटल कॉलेज रिसर्च सेंटर</t>
+  </si>
+  <si>
+    <t>सेंट आलोयशियस सीनियर सेकेंडरी स्कूल, क्राइस्ट चर्च गर्ल्स सीनियर सेकेंडरी स्कूल, क्राइस्ट चर्च बॉयज सीनियर सेकेंडरी स्कूल, ज्ञान गंगा इंटरनेशनल स्कूल, दिल्ली पब्लिक स्कूल, आदित्य कन्वेंट स्कूल, एंजल्स नर्सरी स्कूल, बेलबो ह स्कूल, कॉस्मोस प्री एंड जूनियर स्कूल, जवाहरलाल नेहरू कृषि विश्वविद्यालय, रानी दुर्गावती विश्वविद्यालय, पीडीपीएम इंडियन इंस्टीट्यूट ऑफ इंफॉर्मेशन टेक्नोलॉजी, एनईएस लॉ कॉलेज, अमर ज्योति इंस्टीट्यूट ऑफ नर्सिंग साइंसेस रिसर्च, जबलपुर इंस्टीट्यूट ऑफ हेल्थ साइंसेस, मध्य प्रदेश मेडिकल साइंस यूनिवर्सिटी, नानाजी देशमुख वेटरनरी साइंस यूनिवर्सिटी, धर्मशास्त्र नेशनल लॉ यूनिवर्सिटी</t>
+  </si>
+  <si>
+    <t>बार्ड्सले इंग्लिश मीडियम सीनियर सेकेंडरी स्कूल, डेव एसीसी पब्लिक स्कूल, जेपीवी दाव पब्लिक स्कूल, केंद्रीय विद्यालय एनकेजे, सेक्रेड हार्ट स्कूल, साइना इंटरनेशनल स्कूल, संस्कार भारती स्कूल, सरकारी मॉडल हायर सेकेंडरी स्कूल, नेचर्स स्कूल, ज्ञान सागर पब्लिक स्कूल, सरकारी कॉलेज, सरकारी आईटीआई कॉलेज, सरकारी गर्ल्स कॉलेज, सिलिकोबाइट कटनी डिग्री कॉलेज, राजीव गांधी कॉलेज, साई नाथ नर्सिंग कॉलेज, बरडोली कानून कॉलेज, पॉलिटेक्निक कॉलेज, महर्षि महेश योगी वैदिक विश्वविद्यालय</t>
+  </si>
+  <si>
+    <t>बंसल अस्पताल, पारूलकर अस्पताल, एलबीएस अस्पताल, अग्रवाल अस्पताल, भोपाल चैरिटेबल अस्पताल, अमन अस्पताल, एपेक्स अस्पताल, चिरयु अस्पताल, हाजेला अस्पताल, चिरंजीव क्लिनिक, चौधरी क्लिनिक, आश्रय क्लिनिक, ए के फार्मा, आशीर्वाद मेडिकल, आयु डील मेडिकल, अपोलो फार्मेसी, मेडप्लस, आशा मेडिकल स्टोर, बंसल फार्मेसी कॉलेज, नेटमेड्स, गांधी नगर समुदाय स्वास्थ्य केंद्र, सीजीएचएस स्वास्थ्य केंद्र, समुदाय स्वास्थ्य केंद्र, बेरासिया समुदाय स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>सर्वश्रेष्ठ सुपर स्पेशालिटी अस्पताल, जबलपुर शाल्बी होमकेयर, मार्बल सिटी अस्पताल, गोविंद दास जिला अस्पताल, खमरिया अस्पताल, रांझी सरकारी अस्पताल, शुद्धि क्लिनिक जबलपुर, दिव्या फैमिली क्लिनिक, नंदन क्लिनिक शाहपुरा, डायबिटीज क्लिनिक, गर्हा क्लिनिक, गुरु कृपा क्लिनिक, अपोलो क्लिनिक, साई होम्यो फार्मेसी, अपोलो फार्मेसी, पाठक फार्मा, कुरिल फार्मेसी, समुदाय स्वास्थ्य केंद्र उमरियापान, समुदाय स्वास्थ्य केंद्र पाटन</t>
+  </si>
+  <si>
+    <t>धर्मलोक अस्पताल, गुप्ता नर्सिंग होम, श्री अस्पताल, चांडक अस्पताल, मां दुर्गा अस्पताल, गुरुकृपा अस्पताल, ॐ शांति अस्पताल, नवजीवन अस्पताल, बजाज अस्पताल, जीवन ज्योति अस्पताल, डॉ. डी शंकर क्लिनिक, कैलाश क्लिनिक, लिटिल स्टार क्लिनिक, मैथिल पैथो क्लिनिक, डॉ. सीमा शिवहरे क्लिनिक, डावाइंडिया जेनेरिक फार्मेसी, बसंत मेडिकल स्टोर, प्रेम मेडिकल स्टोर, ईश्वर मेडिकल स्टोर, सचिन मेडिकल स्टोर, ऋषिका मेडिकल स्टोर</t>
+  </si>
+  <si>
+    <t>क्षेत्रीय विज्ञान केंद्र पार्क, भीम बैठका की चट्टान गुहाएँ, निचले झील, केरवा बांध, वर्धमान पार्क, कोलार बांध, कमला नेहरू बाल उद्यान, एकांत पार्क, पीवीआर सिनेमा, इनोक्स कैपिटल मॉल, डीडीएक्स सिनेमा, सिनेपोलिस आशिमा, अल्पना सिनेमा, ज्योति सिनेप्लेक्स, रंगमहल सिनेमा, संगीत सिनेप्लेक्स, न्यासा थिएटर भोपाल, एथलेटिक ट्रैक, फुटबॉल फील्ड, हॉकी फील्ड, स्केटिंग रिंग, बहुउद्देशीय इंडोर स्टेडियम, बॉल बैडमिंटन कोर्ट, टेनिस सिंथेटिक, वॉलीबॉल कोर्ट, बास्केटबॉल कोर्ट, स्विमिंग पूल, शिशु स्विमिंग पूल</t>
+  </si>
+  <si>
+    <t>डुमना नेचर रिजर्व , शारदा नगर पार्क, मनमोहन नगर पार्क, धुआंधार फॉल्स , बच्चों का पार्क, सरस्वती उद्यान भंवरताल पार्क, इंद्रपुरी कॉलोनी पार्क, एथलेटिक ट्रैक, फुटबॉल फील्ड, हॉकी फील्ड, स्केटिंग रिंग, बहुउद्देशीय इंडोर स्टेडियम, बॉल बैडमिंटन कोर्ट, टेनिस सिंथेटिक, वॉलीबाल कोर्ट, बास्केटबॉल कोर्ट, स्विमिंग पूल, बेबी स्विमिंग पूल, मूवी मैजिक, एरा सिनेमास समदरिया, ज्योति सिनेमा, एस आर सिनेमा</t>
+  </si>
+  <si>
+    <t>जागृति पार्क, सुरम्या पार्क, ऊर्जा शिक्षा पार्क, पेंच टाइगर रिजर्व, सतपुरा नेशनल पार्क, चंद्रशेखर आजाद पार्क, कंपनी गार्डन, सुरम्या पार्क, डॉ. भीमराव रामजी अम्बेडकर पार्क, छपरवाह पार्क, गांधी पार्क, एनकेजे स्पोर्ट्स क्लब, आरवी फिटनेस क्लब, पार्थ हेल्थ क्लब, आर्डिनेंस फैक्टरी स्टेडियम, साइना फिटनेस सेंटर, श्री स्पोर्ट्स सेंटर, सिटी प्राइड सिनेमा, नीरज टॉकीज, मित्तल मॉल</t>
+  </si>
+  <si>
+    <t>केरवा बांध, बेतवा नदी, बोरी वाइल्डलाइफ सेंक्चुरी, बागडारा वाइल्डलाइफ सेंक्चुरी , फेन वाइल्डलाइफ सेंक्चुरी , हीरा, कोयला, कॉपर, लोहा अयस्क, वायु प्रदूषण, खाना पकाने के ईंधन से उठतीं खतरनाक गैसें, लकड़ी, फसल की बर्बादी, लकड़ी का राख, कोयला और गोबर, नमी, समोद, राख की धुएं, रसायनिक पदार्थ, नदियों में प्लास्टिक के बहाव, नदियों में चिकित्सा अपशिष्ट का प्रसार</t>
+  </si>
+  <si>
+    <t>नर्मदा, हिरण, वन गंगा , बरगी बांध, डुमना नेचर रिज़र्व, फर्मोराइट, जॉनबॉमाइट, चूने का पाउडर, मैंगनेश, वायु प्रदूषण, शाकाहारी ईंधन से होने वाले हानिकारक गैसें, लकड़ी, फसल के अनावश्यक भागों, कोयले और गोबर, गीलापन, कीटनाशक, निकाली गई प्लास्टिक की व्यापारिक अपशिष्ट, नदियों में मेडिकल कचरे का निकास</t>
+  </si>
+  <si>
+    <t>कटनी नदी, शाहदर वन, चूना पत्थर, बॉक्साइट, डोलोमाइट, फ़ायरक्ले, लेटराइट, ठोस कचरा, जल प्रदूषण, वायु प्रदूषण, प्रकाश प्रदूषण, ध्वनि प्रदूषण, प्लास्टिक प्रदूषण, नदियों में डिस्चार्ज किया गया प्लास्टिक कचरा, नदियों में चिकित्सा कचरा डिस्चार्ज</t>
+  </si>
+  <si>
+    <t>बासमती चावल, सोयाबीन, शरबती गेहूँ, मक्का, अनाजों में ज्वार, तूर, चना, उड़द, मूँग, मूंगफली, सरसों, आलू, प्याज, लहसुन, पपीता, केला, संतरे, आम, अंगूर, पशु, भेड़, बकरी, मुर्गी पालन, केरवा बांध, बेतवा नदी, नहरें, कार्बनिक और सतत खेती, ट्रैक्टर और पीसने की मशीनें, स्वचालन, मशीनरी के कमांड दूरस्थ, रियल टाइम मोनिटरिंग</t>
+  </si>
+  <si>
+    <t>गेंहूं, धान, हरी मटर, देसी चना, अरहर, सोयाबीन, मक्का, चना, मटर, सरसों राबी में, कपास, जूट और मेस्ता, दाल, अनाज और बाजरे, मूंगफली, सोयाबीन, कड़कनाथ - मुर्गी की नस्ल, भड़वारी - भैंस की नस्ल, जमनापारी - बकरी की नस्ल, नर्मदा, हिरण, वन गंगा , बरगी डैम , जैविक और प्रबल कृषि, ट्रैक्टर और थ्रेशिंग मशीन, स्वचालन, मशीनरी के निर्देशों को तेज़ करना रिमोट, रियल टाइम मॉनिटरिंग</t>
+  </si>
+  <si>
+    <t>धान , गेंहूं, चना, दालें, जूट और मेस्टा, मूंगफली, सोयाबीन, सूरजमुखी, केला, नींबू, अमरूद, आम, पपीता, बैंगन, पत्तागोभी, फूलगोभी, हरी मिर्च, भिंडी, प्याज, आलू, मीठा आलू, टमाटर, भैंस, भेड़, बकरी, सुअर, गहरे ट्यूबवील, खोदनेवाली कुआं, मध्यम ट्यूबवील, कम गहरे ट्यूबवेल , ट्रैक्टर और थ्रेशिंग मशीन, स्वचालन, कार्य मेशीनरी कमांड रिमोट, रियल टाइम  मॉनिटरिंग</t>
+  </si>
+  <si>
+    <t>अतीव भ्रष्टाचार, नकारात्मकता बिकती  है, मर रही हिंदी भाषा, पीने के  पानी की  समस्या, किसानों के  मुद्दे, प्राकृतिक प्रभाव, वायु प्रदूषण, श्रम औद्योगिक, अधिक कौशल हस्तक्षेप, फसल खेती, मौसम की स्थिति का प्रभाव, बढ़ रही शहरीकरण, नवाचार और प्रौद्योगिकी का प्रवाह, युवा की भूक, खोजे जाने वाले बांध, आवश्यक नवीनीकृत बड़े झील, पानी की समस्या को हल करें</t>
+  </si>
+  <si>
+    <t>अतीव भ्रष्टाचार, नकारात्मकता बिकती है, मर रही हिंदी भाषा, पेयजल समस्या, किसानों की समस्याएँ, प्राकृतिक प्रभाव, वायु प्रदूषण, श्रम योग्य, अधिक कौशल हस्तक्षेप, फसल खेती, मौसमी स्थिति का प्रभाव, बढ़ता  शहरीकरण, नवाचार और प्रौद्योगिकी अवरोधन, युवाओं की भूख, चेक डैम की तलाश, नवीनीकृत बड़े झीलों की आवश्यकता, पानी की समस्याएँ हल करें</t>
+  </si>
+  <si>
+    <t>ग्रामीण गरीबी, संसाधनों की मांग, जनसंख्या वृद्धि, बेरोज़गारी की तेज़ वृद्धि, धन के वितरण में असमानता, नीति निर्माण, भावना महत्वपूर्ण हैं, विषैले रासायनिक पदार्थ, भूकंप, भारी यातायात, पानी की कमी, खराब वास्तविकता, जनसंख्या का विस्फोट, पानी की कमी, वनों का कटाव, वायु प्रदूषण, नवीकरणीय ऊर्जा, पानी प्रदूषण, प्लास्टिक प्रदूषण, शोर प्रदूषण</t>
+  </si>
+  <si>
+    <t>हिंदी, स्पोकन इंग्लिश, बैगा, भांबी, रुखी, मलकाना, हलाल-खोल, लालबेगी, बालमीकि, कोरल, असदारु, आसोड़ी, शाकाहारी, मांसाहारी, ईश्वर में विश्वास, पारंपरिक संगीत, नृत्य, मंदिरों के त्योहार, पूर्वजों की प्रथाएँ</t>
+  </si>
+  <si>
+    <t>हिंदी, स्पोकन इंग्लिश, औधेलिया, बाग़ड़ी, बहाना, बलाही, बांचड़ा, शाकाहारी, मांसाहारी, ईश्वर में विश्वास, पारंपरिक संगीत, नृत्य, मंदिरों के त्योहार, पूर्वजों की प्रथाएँ, देखने वाले वस्त्र</t>
+  </si>
+  <si>
+    <t>औधेलिया, बगड़ी, बहना, बलही, गोरा, गोवारा, ग्वारी , जादव, यादव, हिन्दू, मुस्लिम, ईसाई, सिख, बौद्ध, जैन, भील, बैगा, गोंडी, मुंडा, हिन्दी, सिंधी</t>
+  </si>
+  <si>
+    <t>लाड़ली लक्ष्मी योजना, मुख्यमंत्री कोविड 19 बाल सेवा योजना, सीएम राइज स्कूल, राष्ट्रीय शिक्षा नीति 2020, कस्तूरबा गांधी बालिका विद्यालय, एक परिसर एक शाला, सुपर 100 योजना, छात्र सम्वर्धन योजना, छात्रवृत्ति योजनाएं, मुफ्त साइकिल वितरण योजना, मुफ्त पाठ्यपुस्तक वितरण योजना, गुणवत्ता सुधार योजना, कंप्यूटर या प्रबंधन में शिक्षा प्राप्त कर रहे विकलांग छात्रों के लिए जीवन और परिवहन भत्ता, गांव की बेटी योजना, प्रतिभा किरण योजना, संस्कृत छात्रवृत्ति योजना, स्वामी विवेकानंद करियर मार्गदर्शन योजना, मुख्यमंत्री बाल आरोग्य संवर्धन कार्यक्रम, अटल बिहारी वाजपेयी बाल आरोग्य मिशन, मध्य प्रधान प्रायोजित योजनाएं जो एमपी में काम कर रही हैं, मुख्यमंत्री उद्यम क्रांति योजना, लाड़ली बहना योजना, महिलाओं की सुरक्षा के लिए, उषा किरण योजना, महिला हेल्पलाइन 181, स्वधार शेल्टर होम योजना, लालिमा अभियान, स्वागत लक्ष्मी मिशन</t>
+  </si>
+  <si>
+    <t>लाड़ली लक्ष्मी योजना, मुख्यमंत्री कोविड 19 बाल सेवा योजना, सीएम राइज स्कूल्स, राष्ट्रीय शिक्षा नीति 2020, कस्तूरबा गांधी बालिका विद्यालय, एक परिसर एक शाला, सुपर 100 योजना, छात्र संवर्धन योजना, छात्रवृत्ति योजनाएँ, मुफ्त साइकिल वितरण योजना, मुफ्त पाठ्यपुस्तक वितरण योजना, गुणवत्ता सुधार योजना, कंप्यूटर या प्रबंधन में शिक्षा प्राप्त कर रहे विकलांग छात्रों के लिए जीवन और परिवहन भत्ता, गांव की बेटी योजना, प्रतिभा किरण योजना, संस्कृत छात्रवृत्ति योजना, स्वामी विवेकानंद करियर मार्गदर्शन योजना, मुख्यमंत्री बाल आरोग्य संवर्धन कार्यक्रम, अटल बिहारी वाजपेयी बाल आरोग्य मिशन, प्रमुख केंद्र सरकार द्वारा प्रायोजित योजनाएँ जो मध्यप्रदेश में कार्यरत हैं, मुख्यमंत्री उद्यम क्रांति योजना, लाड़ली बहना योजना, महिलाओं की सुरक्षा के लिए, उषा किरण योजना, महिला हेल्पलाइन 181, स्वधार शेल्टर होम योजना, ललिमा अभियान, स्वागत लक्ष्मी मिशन</t>
+  </si>
+  <si>
+    <t>विपरीत क्षेत्र अनुदान निधि, एकीकृत बाल विकास योजना, महात्मा गांधी राष्ट्रीय ग्रामीण रोजगार गारंटी अधिनियम, राष्ट्रीय ग्रामीण आजीविका मिशन, जल जीवन मिशन, राष्ट्रीय वॉटरशेड विकास कार्यक्रम, प्रधानमंत्री आवास योजना, प्रधानमंत्री ग्राम सड़क योजना, स्वच्छ भारत मिशन, स्वर्णजयंती ग्राम स्वरोजगार योजना, इंदिरा गांधी राष्ट्रीय विकलांग पेंशन योजना, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना, राष्ट्रीय वृद्धावस्था पेंशन योजना, राष्ट्रीय सामाजिक सहायता कार्यक्रम, प्रधानमंत्री वय वंदना योजना, बेटी बचाओ बेटी पढ़ाओ योजना, जनांज सुरक्षा योजना, प्रधानमंत्री मातृ वंदना योजना</t>
+  </si>
+  <si>
+    <t>श्री मनोरा मेला विदिशा, बंदरा बंद घाट मेला, उर्स राजगढ़, सांची महोत्सव राइसेन, भोपाल उत्सव मेला भोपाल, लोकरंग फेस्टिवल, खजुराहो फेस्टिवल, भगोरिया हाट फेस्टिवल, होली, उज्जैन कुंभ मेला, दशहरा, दीवाली, चेतियागिरि विहारा फेस्टिवल, फिल्म फेस्टिवल, भारत भवन, राष्ट्रीय अलंकरण समारोह, अलाउद्दीन खान व्याख्यानमाला, अमीर खान फेस्टिवल, ध्रुपद समारोह, इंडिपेंडेंट डे, महिला दिवस, पुरुष दिवस, योग दिवस, मातृ दिवस, पितृ दिवस, बच्चों का दिन, भाई-बहन का दिन, शिक्षक दिवस, गणतंत्र दिवस</t>
+  </si>
+  <si>
+    <t>नर्मदा जयंती, हनुमान जन्मोत्सव, क्यमोर कटनी का दशहरा, महादेव मेला, नर्मदा जयंती, पोला फेस्टिवल, बरमां मेला, मकर संक्रांति, रमजान, बकरीद, क्रिसमस, गणेश चतुर्थी, लोकरंग फेस्टिवल, मालवा उत्सव, मीमार उत्सव, आदिवासी फिल्म फेस्टिवल, स्वतंत्रता दिवस, महिला दिवस, पुरुष दिवस, योग दिवस, मातृ दिवस, पितृ दिवस, बाल दिवस, भाई-बहन दिवस, शिक्षक दिवस, गणतंत्र दिवस</t>
+  </si>
+  <si>
+    <t>कीमोर का दशहरा , नर्मदा जयंती, हनुमान जन्म उत्सव, दशहरा कीमोर कटनी, महादेव मेला, पोला त्योहार, बरमां मेला, मकर संक्रांति, रमजान, क्रिसमस, गणेश चतुर्थी, लोकरंग फेस्टिवल, मालवा उत्सव, फिल्म फेस्टिवल, दीवाली, रक्षा बंधन, महाशिवरात्रि त्योहार, मकर संक्रांति, स्वतंत्रता दिवस, महिला दिवस, पुरुष दिवस, योग दिवस, मातृ दिवस, पितृ दिवस, बाल दिवस, भाई-बहन दिवस, शिक्षक दिवस, गणतंत्र दिवस</t>
+  </si>
+  <si>
+    <t>कॉटन टेक्सटाइल्स , जूट और इलेक्ट्रिकल उत्पाद, पावर जनरेशन, आनंत स्पिनिंग मिल्स, भास्कर इंडस्ट्रीज प्राइवेट लिमिटेड, पाल इंडस्ट्रीज, लक्ष्मी इंजीनियरिंग इंडस्ट्रीज, भाव्या इंडस्ट्रीज, दौलतराम इंडस्ट्रीज, मेच फैब इंडस्ट्रीज, कुमारन इंडस्ट्रीज, सुप्रीम प्लास्टिक इंडस्ट्रीज, कैलाश इंडस्ट्री, श्री साई इंडस्ट्री, अपार इंडस्ट्रीज लिमिटेड, कल्प वृक्ष इंडस्ट्री, पलाश इंडस्ट्रीज, महालक्ष्मी प्लास्टिक इंडस्ट्रीज, गोविंदपुरा इंडस्ट्रीज</t>
+  </si>
+  <si>
+    <t>नर्मदा ग्यलेटाइंस लिमिटेड, पैसिफिक आयरन मैन्युफैक्चरिंग लिमिटेड, अनिरुध फूड्स प्राइवेट लिमिटेड, साधना पैकेजिंग प्राइवेट लिमिटेड, अर्के प्रोडक्ट्स प्राइवेट लिमिटेड, अग्रवाल स्टील रीरोलिंग मिल, स्वरुप ऑटोमोबाइल्स, नेहा ज्वेलर्स, माँ रीवा ट्रेडर्स, तान्या इंडस्ट्रीज, आर.वी. टेक्स प्राइवेट लिमिटेड, विश्वकर्मा मेटल्स, महावीर मिल्क प्रोडक्ट, राइस मिल, कुश राइस मिल, गौतम एंटरप्राइजेस, कामला केमिकल्स, श्री हनुमान राइस मिल, माँ नर्मदा एग्रो फूड्स, हीरा पॉलिमर्स</t>
+  </si>
+  <si>
+    <t>कालडेरिस इंडिया रिफ्रैक्टरीज लिमिटेड, अनिल इंडस्ट्रीज कटनी प्राइवेट लिमिटेड, साइना स्टील्स प्राइवेट लिमिटेड, महाकोशल रिफ्रैक्टरीज प्राइवेट लिमिटेड, अजय फूड प्रोडक्ट्स कटनी प्राइवेट लिमिटेड, दिवान इंडस्ट्रीज, महिमा मार्केटिंग, बालाजी व्हाइट सीमेंट प्राइवेट लिमिटेड, बालाजी व्हाइट सीमेंट प्राइवेट लिमिटेड, विक्टरी मिनरल्स प्राइवेट लिमिटेड, केवलानी एग्रो इंडस्ट्रीज प्राइवेट लिमिटेड, लक्ष्मी स्टील इंडस्ट्रीज, जय माता राइस एंड डाल मिल, महाजन वुड इंडस्ट्रीज, रुद्राक्ष राइस मिल, देवाशीश एंटरप्राइजेस, श्रीनिवासन इंडस्ट्रीज, द्वारका आयरन ट्रेडर्स, श्री पद्मा इंडस्ट्रीज, श्री प्रयाग इंडस्ट्रीज, चौरासिया फर्नीचर, किंग ऑप्टिकल्स</t>
+  </si>
+  <si>
+    <t>जेंडर बायस  का सामना करना , गोरी रंग का घमंड , जेंडर बायस से वेतन , महिला मल्टी टासकर्स , अवांछित ध्यान प्राप्त करना, विवाह के दबाव, अकेले यात्रा करने की अनुमति नहीं, दोपहर के लंबाई के मायने को देखकर न्याय करना, ईव छेड़छाड़ सामान्य होती है, व्यावसायिक विभाजन, भारतीय महिलाएँ दैनिक कामकाज में लम्बा समय देती हैं, महिलाओं की पारिवारिक जिम्मेदारियाँ, अपूर्ण संरचना, सरकारी कर्तव्य, परिवहन की कमी, गरीब संरचना, निष्कर्ष शिक्षा परिणाम, आधुनिक शिक्षा साधन, वित्तीय कमी, संचार अंतर, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना, राष्ट्रीय क्रेच स्कीम पोषण।</t>
+  </si>
+  <si>
+    <t>जेंडर बायस का सामना करना , गोरे रंग का घमंड , जेंडर बायस से वेतन , महिला मल्टीटास्कर्स , अनचाहे ध्यान की प्राप्ति, विवाह का दबाव, अकेले यात्रा की अनुमति नहीं, ड्रेस की लंबाई के आधार पर न्यायाधिकरण की भविष्यवाणी की जाती है, चिढ़ाना एक सामान्य बात है, व्यावसायिक विभाजन, भारतीय महिलाएं रोज़ लम्बे लम्बे  घंटों तक काम करती हैं, महिला के परिवार की जिम्मेदारियाँ, पर्यावारण है, सरकारी कर्तव्य, परिवहन की कमी, गरीब. बुनियादी संसाधन है, गरीबी से शिक्षा प्राप्त करने के परिणाम हैं, आधुनिक शिक्षा के उपकरण, वित्तीय कमी, संचार की अंतरिक्ष, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना, राष्ट्रीय क्रेच स्कीम पोषण</t>
+  </si>
+  <si>
+    <t>महिला और बच्चों के स्वास्थ्य, सरकारी कर्तव्य, परिवहन की कमी, खराब बुनियादी ढांचा, वित्तीय संकट, संचार की कमी, रोजगार की शर्तें, वित्तीय संगठन, उच्च बेरोजगारी, अवसाद, लिंग आधारित भेदभाव, गोरी त्वचा पर व्याकुलता, वेतन असमानता, बहुकार्यी, अनचाही ध्यान प्राप्त करना, विवाह के दबाव, ईव टीजिंग, ड्रग उपयोग, दैनिक लम्बी घंटे काम करना, परिवारीय कार्यों का पालन करना, आय उत्पन्न कार्यों, पारिवारिक जिम्मेदारी, यौन उत्पीड़न, व्यापारिक अवसर, निवेश के अवसर अन्वेषण</t>
+  </si>
+  <si>
+    <t>पियर प्रेशर, अवसाद, बुल्लिंग, एकल माता-पिता द्वारा पालन किया जाना, माता-पिता का  दबाव, आत्म-विश्वास विकास, आत्म स्वीकृति, दवा और शराब का दुरुपयोग, गुणवत्ताहीन शिक्षा, किशोर अपराधिता, गरीबी, अपर्याप्त रोजगार के अवसर, मोटापा और अन्य स्वास्थ्य समस्याएँ, आभूषणता, युवा आयु पर परिपक्वता, ग्रामीण जीविका मिशन, युवा कौशल प्रशिक्षण कार्यक्रम, उद्यमिता विकास कार्यक्रम, उद्यमिता जागरूकता कार्यक्रम, व्यापारिक अवसरों की पहचान, निर्णय निर्माण तकनीक, छात्रों के लिए प्रशिक्षण प्रदान करना, व्यापार नेताओं को सकारात्मकता के लिए  प्रेरित करना, समग्र शिक्षा, मुख्यमंत्री छात्रवृत्ति योजना, शिक्षा का अधिकार योजना</t>
+  </si>
+  <si>
+    <t>पीयर प्रेशर, डिप्रेशन, चिढाना , एकल माता पिता द्वारा पालन पोषण , माता पिता का  दबाव, आत्म-विश्वास विकास, आत्म स्वीकृति, मादक पदार्थ और शराब का दुरुपयोग, गुणवत्ता युक्त शिक्षा की कमी, किशोर अपराध, गरीबी, अपर्याप्त रोजगार के अवसर, मोटापा और अन्य स्वास्थ्य समस्याएँ, भौतिकवाद, युवा आयु पर मैदानी जीवन योजना, युवा कौशल प्रशिक्षण कार्यक्रम, उद्यमिता विकास कार्यक्रम, उद्यमिता जागरूकता कार्यक्रम, व्यापारिक अवसरों की पहचान, निर्णय लेने की तकनीकें, छात्रों के लिए प्रशिक्षण प्रदान करना, व्यापार के नेताओं को सकारात्मक आगे बढ़ाने के लिए, समग्र शिक्षा, सीएम छात्रवृत्ति योजना, शिक्षा का अधिकार योजना</t>
+  </si>
+  <si>
+    <t>आत्महत्या और हिंसा, साथियों की दबाव, अवसाद, चिढाना , एकल माता पिता द्वारा पालना, माता पिता का दबाव, आत्म-विश्वास विकास, यौन गतिविधि, आत्म-स्वीकृति, ड्रग और शराब का दुरूपयोग, गुणवत्ता वाली शिक्षा की अभाव, किशोर अपराध, गरीबी, अपर्याप्त रोजगार के अवसर, मोटापा और अन्य स्वास्थ्य समस्याएँ, कम आयु पर परिपक्वता, युवा कौशल प्रशिक्षण कार्यक्रम, उद्यमिता विकास कार्यक्रम, उद्यमिता जागरूकता कार्यक्रम, छात्रों के लिए प्रशिक्षण प्रदान करना, व्यापार के नेता को सकारात्मक बढ़ावा देने के लिए, व्यापार निवेश के अवसर, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना</t>
+  </si>
+  <si>
+    <t>हीनता की भावना , उच्च रक्तचाप, आत्महत्या, वित्तीय अस्थिरता वाला व्यक्ति, अधिक हृदय रोगियों, मधुमेह रोगी, नियंत्रण - धीरे-धीरे गहरी सांस लें, आरोमाथेरेपी का उपयोग करें, शांति दायक जड़ी-बूटी वाली चाय पिएं, ध्यान करें या प्रार्थना करें, व्यायाम से तनाव को कम करें, किसी पर भरोसा कर साथ बात करें, कृतज्ञता अभ्यास करें, संगीत सुनें, अटल पेंशन योजना, बाहर जाएं, व्यायाम  करें या योग करें, कुछ रचनात्मक करें, मस्तिष्क का बोझ कम करें, कॉमेडी देखें, किताबें पढ़ें</t>
+  </si>
+  <si>
+    <t>हीनता की भावना , उच्च रक्तचाप, आत्महत्या, वित्तीय रूप से अस्थिर व्यक्ति, अधिक हृदय रोगी , मधुमेह रोगी, नियंत्रण - धीरे-धीरे गहरी सांस लें, अरोमाथेरेपी उपयोग करें, शांत करने वाली जड़ी-बूटी वाली चाय पिएं, ध्यान करें या प्रार्थना करें, व्यायाम से तनाव को दूर करें, विश्वासपात्र मित्र से बात करें, कृतज्ञता अभ्यास करें, संगीत सुनें, अटल पेंशन योजना, बाहर जाएं, खिचाव लें या योगा करें, कुछ रचनात्मक करें, मस्तिष्क की साफ-सफाई करें, कॉमेडी देखें, पुस्तकें पढ़ें</t>
+  </si>
+  <si>
+    <t>हीनता की भावना , शारीरिक स्वास्थ्य, मानसिक स्वास्थ्य, जराऊवाद, वित्तीय असुरक्षा, हृदय रोग, मधुमेह, स्ट्रोक, कैंसर, मनोभ्रंश, हृदय रोग, कमर और गर्दन दर्द, त्वचा रोग, धीरे संवेदनशील गहरी सांस लो, आरोमाथेरेपी का उपयोग करें, शांति दायक जड़ी बूटी वाली चाय पिएं, ध्यान या प्रार्थना करें, व्यायाम से तनाव को कम करें, विश्वासपात्र मित्र से बात करें, कृतज्ञता का अभ्यास करें, संगीत सुनें, बाहर जाएं, व्यायाम करें या योग करें, कुछ रचनात्मक करें, ब्रेन दिमाग़ को खाली करें, कॉमेडी देखें, पुस्तक पढ़ें, इंदिरा गांधी राष्ट्रीय विकलांग पेंशन योजना, राष्ट्रीय वृद्धावस्था पेंशन योजना</t>
+  </si>
+  <si>
+    <t>श्री मानोरा मेला विदिशा, बांधरा बंध घाट मेला, उर्स राजगढ़, सांची महोत्सव रायसेन, भोपाल उत्सव मेला भोपाल, लोकरंग महोत्सव, खजुराहो महोत्सव, भागोरिया हाट मेला, होली, उज्जैन कुंभ मेला, दशहरा, दीवाली, चेतियागिरि विहार महोत्सव, फिल्म महोत्सव, भारत भवन, राष्ट्रीय अलंकरण समारोह, अलाउद्दीन खान व्याख्यानमाला, अमीर खान महोत्सव, ध्रुपद समारोह</t>
+  </si>
+  <si>
+    <t>नर्मदा जयंती, हनुमान जन्मोत्सव, किमोरे कटनी का दशहरा, महादेव मेला, नर्मदा जयंती, पोला त्योहार, बरमान मेला, मकर संक्रांति, रमजान, बकरिद, क्रिसमस, गणेश चतुर्थी, लोकरंग उत्सव, मालवा उत्सव, मिमर उत्सव, आदिवासी फिल्मों का महोत्सव</t>
+  </si>
+  <si>
+    <t>किमोर का दशहरा, नर्मदा जयंती, हनुमान जन्मोत्सव, दशहरा ऑफ क्यमोर कटनी, महादेव मेला, पोला उत्सव, बरमान मेला, मकर संक्रांति, रमजान, क्रिसमस, गणेश चतुर्थी, लोकरंग उत्सव, मालवा उत्सव, फिल्म उत्सव, दिवाली, रक्षा बंधन, महाशिवरात्रि उत्सव, मकर संक्रांति</t>
+  </si>
+  <si>
+    <t>रेस्तरां, रेल्वे, अन्य साधनों और संचार, बैंकिंग और बीमा, रियल एस्टेट, व्यावसायिक सेवाएं, सार्वजनिक प्रशासन, बहुमण्डलिय खरीदारी मॉल, ब्रांडेड गहनों की दुकानें, टेक्सटाइल शोरूम, कार शोरूम, पशुधन धन , पर्यटन, किराना स्टोर, मत्स्यपालन, खनन, कृषि विकास, मुख्य फसलों की उत्पादकता, औषधि निर्माण, सामूहिक निवेश, मध्यम स्तर का उद्योग, करों का निवेश, ग्रेनाइट कटिंग, पॉलिशिंग क्लस्टर, ऊर्जा और निर्माण</t>
+  </si>
+  <si>
+    <t>रेस्तरां, रेलवे, अन्य साधनों द्वारा परिवहन और भंडारण, संचार, बैंकिंग और बीमा, रियल एस्टेट, व्यापारिक सेवाएं, सार्वजनिक प्रशासन, बहुमंजिली शॉपिंग मॉल, ब्रांडेड आभूषण, टेक्सटाइल शोरूम, कार शोरूम, पशुधन सम्पदा, पर्यटन, किराना स्टोर, मत्स्यपालन, खनन, कृषि विकास, उत्पादकता मुख्य फसलें, जैविक खेती का अभ्यास, छोटे पैमाने के उद्योग, मध्यम पैमाने के उद्योग, करोड़ निवेश, ग्रेनाइट कटिंग, पॉलिशिंग क्लस्‍टर, विद्युत और जल आपूर्ति</t>
+  </si>
+  <si>
+    <t>पशुपालन, वनिकी, व्यापार, होटल, रेस्टोरेंट, रेलवे, अन्य प्रकार का परिवहन और भंडारण, संचार, बैंकिंग और बीमा, अचल संपत्ति, व्यापार सेवाएं, सार्वजनिक प्रशासन, बहु मंजिल शॉपिंग मॉल, ब्रांडेड ज्वेलरी, कपड़ा दुकान, कार दिखाने की दुकान, पर्यटन, ग्रोसरी स्टोर, ऑटोमोबाइल कंपनी, मत्स्य पालन, खनिज उद्योग</t>
+  </si>
+  <si>
+    <t>कॉटन टेक्सटाइल, जूट और इलेक्ट्रिकल प्रोडक्ट्स, पावर जेनरेशन, अनंत स्पिनिंग मिल्स, भास्कर इंडस्ट्रीज प्राइवेट लिमिटेड, पाल इंडस्ट्रीज, लक्ष्मी इंजीनियरिंग इंडस्ट्रीज, भाव्य इंडस्ट्रीज, दौलत राम इंडस्ट्रीज, मेच फैब इंडस्ट्रीज, कुमारान इंडस्ट्रीज, सुप्रीम प्लास्टिक इंडस्ट्रीज, कैलाश इंडस्ट्री, श्री साई इंडस्ट्री, आपार इंडस्ट्रीज लिमिटेड, कल्प वृक्ष इंडस्ट्री, पलाश इंडस्ट्रीज, महालक्ष्मी प्लास्टिक इंडस्ट्रीज, गोविंदपुरा इंडस्ट्रीज</t>
+  </si>
+  <si>
+    <t>नर्मदा जेलेटाइन्स लिमिटेड, पैसिफिक आयरन मैन्युफैक्चरिंग लिमिटेड, अनिरुध फूड्स प्राइवेट लिमिटेड, साधना पैकेजिंग प्राइवेट लिमिटेड, अर्के प्रोडक्ट्स प्राइवेट लिमिटेड, अग्रवाल स्टील रिरोलिंग मिल, स्वरुप ऑटोमोबाइल्स, नेहा ज्वेलर्स, माँ रेवा ट्रेडर्स, तान्या इंडस्ट्रीज, आर.वी. टेक्स प्राइवेट लिमिटेड, विश्वकर्मा मेटल्स, महावीर मिल्क प्रोडक्ट, चावल मिल, कुश राइस मिल, गौतम एंटरप्राइजेज, कमला केमिकल्स, श्री हनुमान चावल मिल, माँ नर्मदा एग्रो फूड्स, हीरा पॉलिमर्स</t>
+  </si>
+  <si>
+    <t>कैल्डेरीस इंडिया रिफ्रेक्टरीज लिमिटेड, अनिल इंडस्ट्रीज कटनी प्राईवेट लिमिटेड, साइना स्टील्स प्राईवेट लिमिटेड, महाकोशल रिफ्रेक्टरीज प्राईवेट लिमिटेड, अजय फूड प्रोडक्ट्स कटनी प्राईवेट लिमिटेड, दीवान इंडस्ट्रीज, महिमा मार्केटिंग, बालाजी व्हाइट सीमेंट प्राईवेट लिमिटेड, बालाजी व्हाइट सीमेंट प्राईवेट लिमिटेड, विक्टोरी मिनरल्स प्राईवेट लिमिटेड, केवलानी एग्रो इंडस्ट्रीज प्राईवेट लिमिटेड, लक्ष्मी स्टील इंडस्ट्रीज, जय माता राइस एंड डाल मिल, महाजन वुड इंडस्ट्रीज, रुद्राक्ष राइस मिल, देवाशीश एंटरप्राइजेज, श्रीनिवासन इंडस्ट्रीज, द्वारका आयरन ट्रेडर्स, श्री पद्मा इंडस्ट्रीज, श्री प्रयाग इंडस्ट्रीज, चौरासिया फर्नीचर, किंग ऑप्टिकल्स</t>
+  </si>
+  <si>
+    <t>खटला पुरा मंदिर, श्री मध्य स्वामी मलई मंदिर, गिन्नोरगढ़ किला, मध्य प्रदेश जनजातीय संग्रहालय, इंदिरा गांधी राष्ट्रीय मानव संग्रहालय - राष्ट्रीय मानव संग्रहालय, क्षेत्रीय विज्ञान केंद्र, बिरला संग्रहालय, भोपाल स्मारक संग्रहालय, पुरातात्विक संग्रहालय, सांची स्तूप, ऊची झील, रानी कामलापति महल, भिंबेटका, गुफा मंदिर, श्री राधा कृष्ण मंदिर, इस्कॉन मंदिर भोपाल</t>
+  </si>
+  <si>
+    <t>भेढाघाट में मार्बल रॉक्स , धुआंधार जलप्रपात, भगवान शिव मूर्ति, पचमढ़ी, नर्मदा नदी पूजा, चौसठ योगिनी मंदिर, बार्गी बांध, पिसानहारी की मड़िया, संतुलित चट्टानें, दुमना प्राकृतिक अभयारण्य, टाइगर एंड वुड्स वन रिसोर्ट, मदन महल किला, भवारताल बाग, रानी दुर्गावती संग्रहालय, कांकाली देवी मंदिर, तिलवाड़ा घाट, श्री विष्णु वराह मंदिर, पाट बाबा मंदिर, संग्राम सागर झील</t>
+  </si>
+  <si>
+    <t>रूपनाथ मंदिर, विजयराघवगढ़ किला, कामाकंडला किला, राधा कृष्ण मंदिर, चतुर्युग धाम बदेरा, जागृति पार्क, सुरम्या पार्क, जंगल सर्वाइवल अकादमी, बसुधा जलप्रपात, भगवान श्री सथ्य साईं बाबा मंदिर, कामाकंडला किला, वराहा मंदिर, विजयराघवगढ़, रूपनाथ</t>
+  </si>
+  <si>
+    <t>पर्यटन, कृषि, बैंकिंग, खुदरा, व्यापार, सरकारी नौकरियां, तकनीशियन, इंजीनियर, मशीन ऑपरेटर, किराना स्टोर, परिधान की दुकानें, छोटे व्यापार, शिक्षक, पुलिस अधिकारी, प्रशासनिक कर्मचारी, भोजन और कच्चे माल की पहुंच, रोजगार के अवसर प्रदान करना, राजस्व उत्पन्न करना, कारपेंटर, ट्रक ड्राइवर, सॉफ्टवेयर डेवलपर, वकील, कलाकार, निर्माण कर्मचारी, उद्यमी, सुरक्षा, सीआरएम जॉब्स, चिकित्सक, बिक्री कार्यकारी, संगीतकार, निर्देशक, अभिनेता, अभिनेत्री, शिक्षक, पुलिस</t>
+  </si>
+  <si>
+    <t>बैंकिंग, खुदरा, व्यापार, सरकारी नौकरी, तकनीशियन, इंजीनियर, मशीन ऑपरेटर, किराना दुकानें, कपड़े की दुकानें, छोटे व्यापार, शिक्षक, पुलिस अधिकारी, प्रशासनिक कर्मी, खाद्य और कच्चे माल की आपूर्ति, रोजगार के अवसर प्रदान करना, राजस्व उत्पन्न करना, कारपेंटर, ट्रक चालक, सॉफ़्टवेयर डेवलपर, वकील, कला कार, निर्माण कारीगर, उद्यमी, सुरक्षा, सीआरएम नौकरियां, डॉक्टर, बिक्री प्रबंधक, संगीतकार, निर्देशक, अभिनेता, अभिनेत्री, शिक्षक, पुलिस</t>
+  </si>
+  <si>
+    <t>शिक्षक, व्याख्यान, पर्यवेक्षक, कार्यालय में काम, डॉक्टर, नर्स, केमिस्ट, इंजीनियरिंग, फार्मासिस्ट, पुस्तकालयाध्यक्ष, कलाकार, अंतरिक्ष यात्री, शेफ, निर्माण काम, अग्निशमन सेवा, पुलिस, पशुचिकित्सक, गायक, वकील, संचालक, चालक, डिज़ाइनर, फोटोग्राफर, कृषि, स्वास्थ्य सेवा, कार्यालय में काम, राजस्व विभाग, पुलिस विभाग, नगर निगम, टेक्सटाइल उद्योग, सीमेंट उद्योग, पेंट</t>
+  </si>
+  <si>
+    <t>उप-उष्णादीपीय जलवायु, वर्षा का मौसम जून से सितंबर तक, मानसून अक्टूबर की सुरुआत, सूखा मौसम मध्य अक्टूबर से मई तक, सर्दियों मध्य नवंबर से अंतिम फ़रवरी तक, सबसे गर्म महीना मध्य मार्च से पहले जून तक, बारिश के दिन जुलाई से सितंबर तक, वातावरणी मार्च से दिसंबर तक, सर्दी का सबसे ठंडा महीना जनवरी, वार्षिक औसत वर्षा 1300 मिमी</t>
+  </si>
+  <si>
+    <t>आर्द्र उपषोधी जलवायु, ग्रीष्म वर्षा मार्च के अंत तक शुरू होती है, जून तक चलती है, मई माह सबसे गर्म होता है, तापमान 40 °सी पार करता है, ठंडी नवंबर से फरवरी तक, मानसून जून से सितंबर तक, औसत वार्षिक वर्षा लगभग 1,386 मिमी होती है</t>
+  </si>
+  <si>
+    <t>गर्म और समशीतोष्ण, सबसे गर्म दिन मई माह में होता है, सबसे ठंडा महीना दिसंबर से फरवरी तक होता है, सबसे बारिशयुक्त महीना जुलाई होता है, छेत्र की वार्षिक औसत तापमान 29.18ºc है, कटनी में आमतौर पर 134.86 मिलीमीटर की बारिश होती है</t>
+  </si>
+  <si>
+    <t>तीखा अचार गोश्त, कीमा, रोगन जोश, कोरमा, बिरयानी, अचार गोश्त, कीमा पुलाव, बाफला, बिवरेज, भोपाली पान, सीक कबाब, मैंगो डिलाइट, मालपुआ, अंजीर बर्फी, बादाम पाकीजा, बालू शाही, चंद्र कला, क्रीम कतली</t>
+  </si>
+  <si>
+    <t>खोपरा पाक, मटर और गाजर के साथ पिलाफ, सीक कबाब, पोहा, चाट तीखा स्ट्रीट फ़ूड, साबूदाना खिचडी, मालपुआ, रबड़ी, चिकन समोसा, खोये की जलेबी, खस्ता कचोरी, गोश्त कोरमा, पालक पूरी, भुट्टे का कीस, दाल बाफला</t>
+  </si>
+  <si>
+    <t>भुट्टे की कीस, चक्की की शाक, खोए की जलेबी, सीख कबाब, पोहा, बिरयानी, प्याज, हल्दी, अदरक, लहसुन पेस्ट और तेल, करी पत्ते, चना, नमक, घी, हरी मिर्च, चावल, पानी, काली मिर्च, तड़का, भाप में पकाना, फ़ेरमेंटेशन, सूर्य प्रकाश में सुखाना, भुनना, पैन फ्राई</t>
+  </si>
+  <si>
+    <t>भोपाल के बादशाह्, हॉकी, भारतीय हॉकी खिलाड़ी समीर दाद, ऐशबाग स्टेडियम फ़ील्ड हॉकी स्टेडियम, टीटी नगर स्टेडियम, क्रिकेट, कबड्डी, फ़ुटबॉल, बास्केटबॉल, वॉलीबॉल, साइकिलिंग, तैराकी, बैडमिंटन, टेबल टेनिस, भारतीय महिला राष्ट्रीय फ़ील्ड हॉकी टीम, चैंपियन मुंबई क्रिकेट टीम</t>
+  </si>
+  <si>
+    <t>क्रिकेट, कबड्डी, फुटबॉल, बास्केटबॉल, वॉलीबॉल, साइकिलिंग, तैराकी, बैडमिंटन, टेबल टेनिस, इंडिया महिला राष्ट्रीय फील्ड हॉकी टीम, चैंपियन मुंबई क्रिकेट टीम, रवीशंकर शुक्ला स्टेडियम, कर्नल सर नेविल चैंबरलेन , ब्लैक पूल का नया रूपांतरण, स्नूकर</t>
+  </si>
+  <si>
+    <t>क्रिकेट, टेनिस, फुटबॉल, हॉकी, कबड्डी, खो-खो, फुटबॉल, बैडमिंटन, टेबल टेनिस, बास्केटबॉल, वैलीबॉल, कराटे, हॉर्स राइडिंग, कुश्ती, चाबुकस्वामी मंदिर, विजयरघवगढ़ किला, कमाकंडला किला, राधा कृष्णा मंदिर, चतुर्युग धाम बदेरा, जागृति पार्क, सुरम्या पार्क, जंगल सर्वाइवल अकादमी, बसुधा जलप्रपात, भगवान श्री सत्य साईं बाबा मंदिर, कमाकंडला किला, वराहा मंदिर</t>
+  </si>
+  <si>
+    <t>पारंपरिक प्रथाओं का संरक्षण, खाद्य अपव्यय, जीव-जन्तुविविधता की हानि, प्लास्टिक प्रदूषण, वनों की संरक्षण, प्राकृतिक आवासों का पुनर्स्थापन, शोषण, खनन, पारितंत्रिक उथल-पुथल, हवा, जल और भूमि का प्रदूषण, मिट्टी और पत्थर माल्य का अस्थिरता, भू-द्रव्यश्रेणी का दृश्य-उत्पीड़न, मृदा संकट, दिशाहीनता, पर्यावरणीय चुनौतियों के खिलाफ संघर्ष, स्थानीय समुदायों के साथ सहयोग करना, पर्यावरणीय चुनौतियों को हल करना</t>
+  </si>
+  <si>
+    <t>पारंपरिक प्रथाओं का  संरक्षण, जैविक ईंधन से ग्लोबल गर्मी, खराब शासन, खाद्य अपव्यय, जैव विविधता का हानि, प्लास्टिक प्रदूषण, वनों की  कटाई , जैविक विपथन, प्लास्टिक के खिलाफ कार्य, वनों की संरक्षा, पर्यावरणीय निरीक्षण, खनन, पर्यावरणीय बाधाओं, हवा, पानी और भूमि का प्रदूषण, मृदा और चट्टान द्रव्यमानों की अस्थिरता, दृश्य हीनीकरण, रेगिस्तानीकरण, पर्यावरणीय चुनौतियों के खिलाफ लड़ाई, स्थानीय समुदायों के साथ साझेदारी, पर्यावरणीय चुनौतियों को हल करना</t>
+  </si>
+  <si>
+    <t>वन्यजीव और बाघ संरक्षण, समुदायों द्वारा संरक्षित क्षेत्र, जैव विविधता संरक्षण, जैव विविधता की हानि, प्लास्टिक प्रदूषण, वनों की कटाई, वायु प्रदूषण, ध्वनि प्रदूषण, जल प्रदूषण, पर्यावरणीय चुनौतियों का समाधान</t>
+  </si>
+  <si>
+    <t>श्री मनोरा मेला विदिशा, बाँधरा बाँध घाट मेला, उर्स राजगढ़, सांची महोत्सव रैसेन, भोपाल उत्सव मेला भोपाल, लोकरंग महोत्सव, खजुराहो महोत्सव, भगोरिया हाट महोत्सव, होली, उज्जैन कुम्भ मेला, दशहरा, दिवाली, चेथियागिरि विहार महोत्सव, फिल्म महोत्सव, भारत भवन, राष्ट्रीय अलंकार समारोह, अलाउद्दीन खान व्याख्यानमाला, अमीर खान महोत्सव, ध्रुपद समारोह</t>
+  </si>
+  <si>
+    <t>नर्मदा जयंती, हनुमान जन्मोत्सव, किमोरे कटनी का दशहरा, महादेव मेला, नर्मदा जयंती, पोला त्योहार, बरमान मेला, मकर संक्रांति, रमज़ान, बकरीद, क्रिसमस, गणेश चतुर्थी, लोकरंग त्योहार, मालवा उत्सव, मीमर उत्सव, जनजातीय फिल्मों का मेला</t>
+  </si>
+  <si>
+    <t>किमोर का दशहरा, नर्मदा जयंती, हनुमान जन्म उत्सव, दशहरा ऑफ क्यमोर कटनी, महादेव मेला, पोला त्योहार, बरमान मेला, मकर संक्रांति, रमज़ान, क्रिसमस, गणेश चतुर्थी, लोकरंग त्योहार, मालवा उत्सव, फ़िल्म महोत्सव, दीवाली, रक्षा बंधन, महाशिवरात्रि उत्सव, मकर संक्रांति</t>
+  </si>
+  <si>
+    <t>ज़री कढ़ाई, चमड़े से भरे हुए खिलौने, पेपर मेशी , जूट वर्क , बुनाई का कपड़ा, वुड क्राफ्ट, गोंड कला, पिथोरा लोक चित्र, कोहबर की दीवारों पर चित्रकारी, बुंदेलखंड की चित्रकारी, मालवा, नीमर की मंदाना चित्रकारी, धातु के आभूषण, कांस्य के गहने, साड़ी की बुनाई, हस्तशिल्प बुनाई साड़ी</t>
+  </si>
+  <si>
+    <t>ढोकरा, ज़री ज़रदोज़ी, बाटिक प्रिंट, पतंगढ़ की गोंड  चित्रकारी, मोती के गहनाएँ, नंदना प्रिंट, तानसेन समारोह, म्यूजियम ऑफ नेचुरल वुडन स्कल्पचर, मंडाना कला, आर्ट ईकोल, बांस की  टोकरी बनाना , बट्टो बाई गुड़ियाँ, आकर्षक चंदेरी, दरी की बुनाई, महेश्वरी साड़ियों की बुनाई की कहानी, भेड़ाघाट की संगमरमर कला</t>
+  </si>
+  <si>
+    <t>हैंडलूम, पिथोरा पेंटिंग, संगमरमर की पत्थर कार्विंग, टेराकोटा, वुडकार्विंग, मेटल क्राफ्ट, अंगूठी, पेपर मेशी , पत्थर कार्विंग, कपड़ा बुनाई, वुड क्राफ्ट  और ज़री एम्ब्राइडरी, स्टफ्ड टॉय, कारपेट बुनाई</t>
+  </si>
+  <si>
+    <t>वायु प्रदूषण, प्लास्टिक प्रदूषण, सिविक सुविधाओं की कमी, सरकारी स्कूलों की शर्मनाक हालत, सरकारी अस्पतालों में कम सुविधाएँ, यातायात समस्याएँ, परिवहन समस्याएँ, बीमारी, बीमारी, चोट, अधिक रिकवरी, बढ़ी हुई वायुसंचरण क्षमता, लंबी आयु, पीने के पानी की कमी, जनसंख्या के प्रभाव, पोषण की कमी, महिलाओं का रोज़गार, यौन उत्पीड़न, वेतन मुद्दे, अवसाद, कृषि पर आश्रित, कई चुनौतियों का सामना, दैनिक मजदूरी पर आधारित हैं</t>
+  </si>
+  <si>
+    <t>वायु प्रदूषण, प्लास्टिक प्रदूषण, नगरीय सुविधाओं की कमी, सरकारी स्कूलों की अधीनस्थता, सरकारी अस्पतालों में कम सुविधाएं, यातायात समस्याएं, परिवहन समस्याएं, बीमारी, रोग, चोट का घटित होना, सुदृढ़ इम्यून संचालन, तेजी से स्वस्थ होना, लंबी उम्र, पीने के पानी की कमी, जनसंख्या प्रभाव, पोषण की कमी, महिलाओं की रोजगार में यात्रा, यौन उत्पीड़न, वेतन समस्याएं, अवसाद, कृषि पर आश्रित, कई चुनौतियाँ सामना करना, दैनिक मजदूरी पर आश्रित</t>
+  </si>
+  <si>
+    <t>बेरोजगारी, मानव संसाधन विकास, जलवायु परिवर्तन, शहरी विकास, निवेशकों की शिखर सम्मेलन, भारी यातायात, जनसंख्या, वायु प्रदूषण, कचरा प्रबंधन, बाल पिड़ितता, अपराध, घरेलू हिंसा, दवा उपयोग, स्कूलों के लिए धन की कमी, जाति आधारित टकराव, जनसंख्या प्रभाव, यौन उत्पीड़न, पर्यावरणीय प्रतिष्ठान, अवसाद, ग्लोबल गर्मी, महिला सशक्तिकरण, ठोस कचरे का निपटान, जाति आधारित भेदभाव</t>
+  </si>
+  <si>
+    <t>लेट जी डी मेमोरियल वेलफेयर  सोसायटी, आभिरुचि जन कल्याण संस्थान, आधार कलान प्रशिक्षण केंद्र, आलोक आस्था लोक कल्याण समिति, आंजनेय वेलफेयर आर्गेनाइजेशन, आराधना कला केंद्र, आरंभ शिक्षा और सामुदायिक विकास समिति, आर्नवी शिक्षा और जन कल्याण समिति, आर्य सामाजिक विकास और कार्य समिति, आस्रा युवा सांस्कृतिक और सामाजिक कल्याण समिति</t>
+  </si>
+  <si>
+    <t>जन कल्याण योजना के लिए ईसाई संगठन, आद्या दुर्गा कला शिक्षा एवं जन कल्याण समिति जबलपुर, आहना कल्याण समाज, आजीविका शिक्षा प्रशिक्षण संस्था, आनंदम एवं जन कल्याण समिति जबलपुर, आशियाना संस्कार समिति, आशना शिक्षा और कल्याण समाज जबलपुर, एबी उपभोक्ता संरक्षण संगठन, सक्रिय समाज शहरी ग्रामीण एवं समेकित विकास के लिए, अदिति स्वयं सेवी संस्था, आकाश महिला कल्याण शिक्षा समिति, आकाश महिला कल्याण शिक्षा समिति, अलाइव फाउंडेशन</t>
+  </si>
+  <si>
+    <t>साई ब्रदर्स ट्रस्ट, आस्था सामाजिक सृजन विकाश समिति, आदित्य मानव सेवा शिक्षण और समाज कल्याण समिति, आकाशदीप समाज सेवी संस्था, डैव एजुकेशन एंड वेलफेयर सोसायटी, दिशा जन कल्याण समिति, ग्राम किमोरे कल्याण और समाजोथन समिति, होली एंजेल्स एजुकेशन एंड रिसर्च सोसायटी, जन शिक्षण संस्थान कटनी, जयंत शिक्षा समिति, किरण युवा साहित्यिक और सांस्कृतिक संस्था, लक्ष्य इंस्टीट्यूट ऑफ डेवलपमेंट एक्शन एंड स्टडीज, मानव जीवन विकास समिति, ओम साई जन कल्याण और विकास समिति, संशोधन नाट्य मंच, संप्रश्न नाट्य मंच कटनी, संस्कृति महिला मंडल, सौभाग्य महिला सशक्तिकरण और समाजिक संस्थान, श्री गुरूजी ज्ञान उत्कर्ष समिति, सौभाग्य महिला सशक्तिकरण और समाजिक संस्थान, विश्व बंधु परिषद</t>
+  </si>
+  <si>
+    <t>विश्वविद्यालय, इंजीनियरिंग संस्थान, चिकित्सा महाविद्यालय, पॉलिटेक्निक कॉलेज, अनुसंधान और विकास केंद्र, प्रीस्कूल, शिशुपालन प्राथमिक माध्यमिक विद्यालय, नए कौशल सेट का विकास करें, अपने कार्यस्थल कौशल विकसित करें, नेतृत्व की जिम्मेदारियों को हासिल करें, अपना पेशेवर नेटवर्क बढ़ाएं, शिक्षा व्यक्तित्व विकास, बच्चों की विकास हमारा ज्ञान, अन्य देशों के साथ संचार करें, स्वास्थ्य की प्रगति, कृषि नवाचार, सार्वजनिक प्रशासन, निजी क्षेत्र की वृद्धि, मानव मस्तिष्क की संभावना को मुक्त करें, राष्ट्रीय मतलब सह उत्पन्नता छात्रवृत्ति योजना</t>
+  </si>
+  <si>
+    <t>विश्वविद्यालय, इंजीनियरिंग संस्थान, चिकित्सा महाविद्यालय, पॉलिटेक्निक कॉलेज, अनुसंधान विकास केंद्र, प्रीस्कूल, छोटे बच्चों के प्राथमिक और माध्यमिक विद्यालय, नए कौशल सेट का विकास करें, अपने कार्यस्थल कौशल विकसित करें, नेतृत्व जिम्मेदारियों को संभालें, अपना पेशेवर नेटवर्क बढ़ाएं, शिक्षा व्यक्तित्व विकास, बच्चों का विकास हमारे ज्ञान, अन्य देशों से संचरण करें, स्वास्थ्यी उन्नतियों, कृषि नवाचारों, सार्वजनिक प्रशासन, निजी क्षेत्र की वृद्धि, मानव दिमाग की सम्भावनाओं को मुक्त करें, राष्ट्रीय मतलब सह मेरिट छात्रवृत्ति योजना</t>
+  </si>
+  <si>
+    <t>सामान्य शिक्षा संस्थान, उच्च शिक्षा संस्थान, उच्चतर माध्यमिक विद्यालय, प्राथमिक या माध्यमिक या प्राथमिक विद्यालय, तकनीकी संस्थान, निजी विद्यालय, सरकारी विद्यालय, सीबीएसई विद्यालय, विश्वविद्यालय, चिकित्सा महाविद्यालय, पॉलिटेक्निक कॉलेज, मुख्यमंत्री मेधावी विद्यार्थी योजना, मुख्यमंत्री जन कल्याण योजना, ओबीसी छात्रों के लिए पोस्ट मैट्रिक छात्रवृत्ति योजना, लड़ली लक्ष्मी योजना, मुख्यमंत्री महिला सशक्तिकरण योजना, प्रधानमंत्री मातृत्व वंदना योजना, किशोरी बालिका योजना</t>
+  </si>
+  <si>
+    <t>सरकारी अस्पताल, बेड सुविधाएँ, निजी अस्पताल, क्लिनिक, नर्सिंग होम, डायग्नोस्टिक सेंटर, एम एम पी  जे अस्पताल और अनुसंधान केंद्र, जी के जनरल अस्पताल, भानुशाली अस्पताल, श्री सदगुरु अस्पताल, गौरी अस्पताल, स्वास्थ्य जागरूकता कार्यक्रम, नि: शुल्क इन हाउस निदान सेवाएं, नि: शुल्क दवाएं, गांवों में मासिक शिविरों में नि: शुल्क मासिक कैंप, रक्त सेवाएं, तात्कालिक वार्ड, प्राथमिक स्वास्थ्य केंद्र ग्रामीण शहरी, स्वास्थ्य उप केंद्र, मोबाइल मेडिकल यूनिट, १०८ एम्बुलेंस सेवा</t>
+  </si>
+  <si>
+    <t>सरकारी हॉस्पिटल, बिस्तर सुविधाएं, प्राइवेट  हॉस्पिटल, क्लीनिक, नर्सिंग होम, डायग्नोस्टिक सेंटर, स्वास्थ्य जागरूकता कार्यक्रम, घर के विकर्ण सेवाओं में मुफ्त, नि: शुल्क दवाएं, गांवों में मुफ्त मासिक शिविर, रक्त सेवाएं, आपातकालीन वार्ड, प्राथमिक स्वास्थ्य केंद्र ग्रामीण शहरी, स्वास्थ्य उप केंद्र, मोबाइल मेडिकल यूनिट्स, 108 एम्बुलेंस सर्विस, केयर सीएचएल हॉस्पिटल्स, बंसल हॉस्पिटल, एलबीएस हॉस्पिटल</t>
+  </si>
+  <si>
+    <t>प्राइवेट  हॉस्पिटल, सरकारी हॉस्पिटल, क्लीनिक, फार्मेसी, डेंटल हॉस्पिटल, आई स्पेशलिस्ट, प्राइमरी हेल्थ  सेंटर, लेबोरेटरीज, बेड सुविधा , एम्बुलेंस सुविधा , मेडिकल सर्विसेज, स्पेशल ट्रीटमेंट, हेल्थ सेंटर, इनडोर या आउटडोर मरीज डिपार्टमेंट, मेडिकल एंड हेल्थ सर्विसेज, भारतीय चिकित्सा प्रणाली के तहत स्वास्थ्य सुविधाएं, चिकित्सा देखभाल की सुविधाएं, एमआरआई स्कैन, राष्ट्रीय स्वास्थ्य मिशन, संशोधित राष्ट्रीय तपेदिक नियंत्रण कार्यक्रम</t>
+  </si>
+  <si>
+    <t>एम पी एस आर टी सी बस , आई4यू यात्रा सेवाएं, जे एम डी डावर ट्रेवेल्स, लोधी ट्रेवल्स , फील इंडिया टूर्स, श्री ट्रेवल्स , अशोक ट्रेवल्स , वसुंधरा ट्रेवल्स , ओम साई राम ट्रेवल्स , राजा भोज हवाई अड्डा, देवी अहिल्या बाई होलकर हवाई अड्डा, इंडी भोपाल एक्सप्रेस, महामाना एक्सप्रेस, पीबीएच भोपाल एक्सप्रेस, बीना भोपाल एक्सप्रेस मेमू, इंडी इंटरसिटी, हावड़ा भोपाल एक्सप्रेस, गोंडवाना एक्सप्रेस, छत्रपति  शिवाजी महाराज टर्मिनस गोरखपुर जनसाधारण एक्सप्रेस, नर्मदा एक्सप्रेस, कामायनी एक्सप्रेस, केरल एक्सप्रेस, भोपाल एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>एम पी एस आर टी सी बस, आई 4 यु यात्रा सेवाएं, श्रीराम टूअर्स एंड ट्रैवल्स, नंदन ट्रैवल्स, गुप्ता ट्रैवल्स, संजय ट्रेवल्स, ट्रिप एन ट्रैवल, जबलपुर हवाई अड्डा, जेबीपी निर पैसेंजर, एनजीपी निर जेबीपी पैसेंजर, जेबीपी निर एनजीपी पैसेंजर, बीटीसी जेबीपी पैसेंजर, जेबीपी सरवाल्डीस्ता एक्सप्रेस, मध्य प्रदेश संपर्क क्रांति एक्सप्रेस, जबलपुर डौराई एक्सप्रेस, विशेष किराया उर्स विशेष, जेबीपी अटारी विशेष, अमरावती जबलपुर सुपरफास्ट एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>ओएसआर टूर्स एंड ट्रैवल्स, चार्टर्ड बस, गौरा टूर्स एंड ट्रैवल्स, मोना गोल्डन ट्रांसपोर्ट, अरोरा ट्रैवल्स, झालवारा रेलवे स्थानक, कटनी जंक्शन रेलवे स्थानक, कटनी मुरवारा जंक्शन रेलवे स्थानक, मधवनगर रोड रेलवे स्थानक, रुपाउंड रेलवे स्थानक, विलायतकलां रोड रेलवे स्थानक, निकटतम जबलपुर हवाई अड्डा, कटनी बीना पैसेंजर, चिरमिरी कटनी फास्ट पैसेंजर, इटारसी सतना पैसेंजर, शिप्रा एक्सप्रेस, एलटीटी एलडी एक्सप्रेस, रेवा इंदबी एक्सप्रेस, गोंदिया सीपीआर एक्सप्रेस, महाकोशल एक्सप्रेस, एनटीवी दुर्ग एक्सप्रेस, साकेत एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>निवास गृह, जीवन शिक्षा समुदाय, अपार्टमेंट स्यूट्स, गर्मी के आवास, स्नातकोत्तर आवास, शहर के बाहरी आवास, आवासीय संपत्ति की मांग, अपार्टमेंट, फ्लैट, विला, प्लॉट, हॉस्टल, गेस्टहाउस, महंगा किराया, नए रियल एस्टेट एजेंट, बढ़ते घर खरीदार, खरीदारों को प्रभावित करना, विक्रेताओं, निवेशकों, स्थायी घर</t>
+  </si>
+  <si>
+    <t>अरीना डेवलपर्स जबलपुर, गाला डेवलपर्स बिल्डर, केमटानी प्रोजेक्ट्स बिल्डर, शापूर्जी पालोन, श्रीजी इंफ्रास्ट्रक्चर, फीनिक्स ग्रुप इंफ्रास्ट्रक्चर, आवासीय हॉल्स, लिविंग लर्निंग समुदाय, अपार्टमेंट सुइट्स, समर हाउसिंग, स्नातक आवास, ऑफ कैंपस हाउसिंग, आवासीय संपत्ति की मांग, अपार्टमेंट, फ्लैट, विला, प्लॉट्स, हॉस्टल, गेस्टहाउस, महंगी किराया, नए रियल एस्टेट एजेंट्स, बढ़ रहे होमबायर्स, खरीदारों, विक्रेताओं, निवेशकों, स्टैंडअलोन हाउस</t>
+  </si>
+  <si>
+    <t>आरुष अपार्टमेंट, सुखसागर अपार्टमेंट, साई अपार्टमेंट्स, सतनाम अपार्टमेंट्स, सम्कित अपार्टमेंट, अश्वनी केशबाई अपार्टमेंट, पुष्पगिरि अपार्टमेंट, अजय चौधरी आवास, अजीत यादव घर, आशी घर, कृष्णा घर, कंगारू हाउस, ग्रोवर का घर, सागर सोनी का घर, गुप्ता का घर, अटारीवाला का घर, प्यासी का घर, बी.के सिंह का घर, दहिया का घर</t>
+  </si>
+  <si>
+    <t>स्टार प्लस, ज़ी टीवी, सोनी, कलर्स टीवी, सोनी सब, डिस्कवरी जीत, स्टार भारत, रिश्ते, बिंदास, सोनी पल, बिग मैजिक, ज़ूम, लिविंग फूड्स, लिविंग जेन, ज़ी अनमोल, स्टार उस्ताव, डाबंग, डीडी नेशनल, डीडी भारती, डीडी इंडिया शॉपिंग, एनटी 1, होम शॉप 18, ईज़ीमॉल, रेडियो मिर्ची 98.3, एफएम रेडियो ध्वनि ख्रिस्तिया, जागृति रेडियो एनडब्ल्यूजीईएलसी कोरबा रेडियो स्पूलर पॉड, सरस्वती विलास, प्रभा, बाल मनोरंजन</t>
+  </si>
+  <si>
+    <t>स्टार प्लस, ज़ी टीवी, सोनी, कलर्स टीवी, सोनी सब, डिस्कवरी जीत, स्टार भरत, रिश्ते, बिंदास, सोनी पाल, बिग मैजिक, ज़ूम, लिविंग फूड़ज़, लिविंग ज़ेन, ज़ी अनमोल, स्टार उस्ताव, दबंग, डीडी नैशनल, डीडी भारती, डीडी इंडिया शॉपिंग, एनटी 1, होम शॉप 18, ईज़ीमॉल, रेडियो मिर्ची ९८.३, एफएम रेडियो ध्वनि ख्रिस्टिया, जाग्रति रेडियो एनडब्ल्यूजीईएलसी कोरबा रेडियो स्पूलर पॉड, सरस्वती विलास, प्रभा, बाल मनोरंजन</t>
+  </si>
+  <si>
+    <t>टाइम्स ऑफ़ इंडिया, सेंट्रल क्रॉनिकल, जबलपुर एक्सप्रेस, हिन्दुस्तान टाइम्स, द हितवाड़ा एंड बिजनेस स्टैंडर्ड, दैनिक भास्कर, डीडी मध्य प्रदेश, इंडिया न्यूज़, न्यूज़ स्टेट, न्यूज़ 18 , साधना न्यूज़, सहारा समय मध्य प्रदेश, ज़ी मध्य प्रदेश</t>
+  </si>
+  <si>
+    <t>लाडली लक्ष्मी योजना, मुख्यमंत्री कोविड -19 बाल सेवा योजना, सीएम राइज स्कूल, राष्ट्रीय शिक्षा नीति 2020, कस्तूरबा गांधी बालिका विद्यालय, एक परिसर एक शाला, सुपर 100 योजना, छात्र संवर्धन योजना, छात्रवृत्ति योजनाएँ, मुफ्त साइकिल वितरण योजना, मुफ्त पाठ्यपुस्तक वितरण योजना, गुणवत्ता सुधार योजना, कंप्यूटर या प्रबंधन में शिक्षा पुरस्कृत छात्रों के लिए जीविका और परिवहन भत्ता, गांव की बेटी योजना, प्रतिभा किरण योजना, संस्कृत छात्रवृत्ति योजना, स्वामी विवेकानंद करियर मार्गदर्शन योजना, मुख्यमंत्री बाल आरोग्य संवर्धन कार्यक्रम, अटल बिहारी वाजपेयी बाल आरोग्य मिशन, मध्य प्रदेश में संचालित प्रमुख केंद्र सरकार द्वारा धन्यात्मक योजनाएँ, मुख्यमंत्री उद्यम क्रांति योजना, लाड़ली बहना योजना, महिलाओं की सुरक्षा के लिए, उषा किरण योजना, महिला हेल्पलाइन 181, स्वधार आश्रय गृह योजना, लालिमा अभियान, स्वागत लक्ष्मी मिशन</t>
+  </si>
+  <si>
+    <t>लाडली लक्ष्मी योजना, मुख्यमंत्री कोविड 19 बाल सेवा योजना, सीएम राइज स्कूल्स, राष्ट्रीय शिक्षा नीति 2020, कस्तूरबा गांधी बालिका विद्यालय, एक परिसर एक शाला, सुपर 100 योजना, छात्र संवर्धन योजना, छात्रवृत्ति योजनाएं, मुफ्त साइकिल वितरण योजना, मुफ्त पाठ्यपुस्तक वितरण योजना, गुणवत्ता सुधार योजना, कंप्यूटर या प्रबंधन में शिक्षा पुरस्कृत अपंग छात्रों के लिए जीने और परिवहन भत्ता, गांव की बेटी योजना, प्रतिभा किरण योजना, संस्कृत छात्रवृत्ति योजना, स्वामी विवेकानंद करियर मार्गदर्शन योजना, मुख्यमंत्री बाल आरोग्य संवर्धन कार्यक्रम, अटल बिहारी वाजपेयी बाल आरोग्य मिशन, मध्य प्रदेश में कार्यरत मुख्य केंद्र सरकारी योजनाएं, मुख्यमंत्री उद्यम क्रांति योजना, लाड़ली बहना योजना, महिलाओं के संरक्षण के लिए, उषा किरण योजना, महिला हेल्पलाइन 181, स्वधार शेल्टर होम योजना, लालिमा अभियान, स्वागत लक्ष्मी मिशन</t>
+  </si>
+  <si>
+    <t>मिड डे मील स्कीम, मुख्यमंत्री आर्थिक कल्याण योजना, जननी सुरक्षा योजना, राज्य बीमारी सहायता, मुख्यमंत्री तीर्थ दर्शन योजना, मुख्यमंत्री कन्या विवाह योजना, मुख्यमंत्री विकलांग विवाह प्रोत्साहन योजना, इंदिरा गांधी राष्ट्रीय वृद्धावस्था पेंशन योजना, इंदिरा गांधी राष्ट्रीय विकलांग पेंशन योजना, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना, स्वच्छ भारत मिशन, विकलांग छात्रवृत्ति, मुफ्त लेखनी और किताब वितरण, आवास सहायता योजना, लैपटॉप आपूर्ति योजना, प्रधानमंत्री आवास योजना, अल्पसंख्यक पूर्व मेट्रिक छात्रवृत्ति योजना, अल्पसंख्यक पोस्ट मेट्रिक छात्रवृत्ति योजना, अन्य पिछड़ा वर्ग पोस्ट मेट्रिक छात्रवृत्ति योजना</t>
+  </si>
+  <si>
+    <t>शंकर दयाल शर्मा, रघुराम राजन, अनीस अहमद, मोहम्मद बरकतुल्लाह भोपाली, बाल्थाज़ार नेपोलियन IV दे बुर्बन, मनज़ूर अहतेशाम, जावेद अख़्तर, बशीर बद्र, असद भोपाली, कैफ़ भोपाली, जय प्रकाश यादव, फ़ातिमा बानो, समीर दाद, भावना देहरिया, असलम शेर ख़ान, शवर अली, जया बच्चन, स्टेबिन बेन, शाकीला बानो भोपाली, शोएब इब्राहिम, अन्नू कपूर, अरशी ख़ान, सारा ख़ान, सुनील लहरी, मुनव्वर मसूम</t>
+  </si>
+  <si>
+    <t>अमेदी दिलालेक्स , रानी दुर्गावती, अबानी मुखर्जी, टॉम आल्टर, जया बच्चन, जेनिफर मिस्ट्री बंसीवाल, शलीन भानोट, गुरमीत चौधरी, किरण खेर, प्रेम नाथ, मेजर जनरल जी डी बक्शी, एडमिरल जल कुर्सेजी, लेफ्टिनेंट जनरल वाग पिंटो, सी बी भावे, सुधीर कुमार मिश्रा, एस प्रकाश तिवार, कैप्टन बी पी तिवारी, फ्रैंक एंथोनी, रमेश्वर नीखरा, राकेश सिंह, के एस सुदर्शन, सिद्धार्थ पौल तिवारी, अजय चौधरी, श्याम मर्दिकर, महंत स्वामी महाराज, ओशो रजनीश, महर्षि महेश योगी</t>
+  </si>
+  <si>
+    <t>मोतीलाल वर्मा, गिरिराज पोद्दार, रामदास, अर्जुन रामपाल, आलिया सिद्दीकी, अंशुल तिवारी, जेनिफर मिस्ट्री बंसीवाल, ठग बेहरम, सेठ गोविंद दास, विजयराघवगढ़, रूपनाथ, बिलहरी, झिंझ़री, जैन तीर्थंकर शांतिनाथ, नारायण शैशयानी, जैनत ओर सर्वांत, महर्षि महेश योगी, शालिनी पांडे, रूप सिंह, अमृतलाल वेगड़</t>
+  </si>
+  <si>
+    <t>Jaipur/जयपुर</t>
+  </si>
+  <si>
+    <t>Ajmer / अजमेर</t>
+  </si>
+  <si>
+    <t>जौ, गेहूं, चना, दालें, तिलहन, बाजरा, ज्वार, मक्का, मूंगफली, अजमेर, झुंझुनू, जयपुर नींबू पाली, दौसा, बूंदी, जयपुर, सिरोही, आम, बांसवाड़ा, चित्तौड़गढ़</t>
+  </si>
+  <si>
+    <t>तीज, अंतर्राष्ट्रीय पतंग महोत्सव, जयपुर साहित्य महोत्सव, हाथी मेला, शीतकालीन महोत्सव, ग्रीष्म महोत्सव, उर्स महोत्सव, पुष्कर ऊंट मेला, राजस्थान अंतर्राष्ट्रीय लोक महोत्सव, कोलायत मेला, मेवाड़ महोत्सव, कुंभलगढ़ महोत्सव, बूंदी महोत्सव, मत्स्य महोत्सव, रेगिस्तान महोत्सव, नागौर पशु मेला, बाणेश्वर उत्सव, चंद्रभागा मेला, कोटा साहसिक उत्सव, गणगौर उत्सव, महाशिवरात्रि, अश्व पूजन, कबीर यात्रा, रामदेवरा मेला</t>
+  </si>
+  <si>
+    <t>आमेर के राजा, महाराजा सवाई जय सिंह द्वितीय, वास्तु शास्त्र, शिल्प शास्त्र, मुस्लिम विश्व, सेवन फॉर्टीफाइड गेट , सवाई राम सिंह द्वितीय, अल्बर्ट एडवर्ड, प्रिंस ऑफ वेल्स किंग एडवर्ड सप्तम, विशेषण गुलाबी शहर, विस्तृत बुलेवार्ड, महाराजा राम सिंह द्वितीय अगस्त में शहर के बड़े इलाके, हवाईअड्डे में बाढ़ आ गई, द्रव्यवती नदी, बादल फटने से शहर को नुकसान पहुंचा</t>
+  </si>
+  <si>
+    <t>पर्यटन, रत्न काटना, आभूषण निर्माण, लक्जरी वस्त्र, लघु उद्योग, आईटी उद्योग, कला और शिल्प, राजस्थान उद्योग, कुबेर उद्योग, एचकेएफ जयपुर इंडस्ट्रीज प्राइवेट लिमिटेड, रुचि सोया इंडस्ट्रीज लिमिटेड, गोसिल एक्सपोर्ट्स प्राइवेट लिमिटेड, आदिनाथ इंडस्ट्रीज, हनुत इंडस्ट्रीज, यूनिकॉर्न इंडस्ट्रीज, तपन एग्रो इंडस्ट्रीज प्राइवेट लिमिटेड, आनंद इंडस्ट्रीज, एमएस जयपुर टाइम इंडस्ट्रीज, राजस्थान लघु उद्योग निगम लिमिटेड, एलजटन्ना एंटरप्राइजेज प्राइवेट लिमिटेड, भारतीय उद्योग परिसंघ</t>
+  </si>
+  <si>
+    <t>जयपुर नगर निगम, राजस्थान नगर पालिका अधिनियम, नगर निगम आयुक्त, जयपुर विकास प्राधिकरण, विधान सभा और राज्य एजेंसियां, जयपुर लोकसभा क्षेत्र, विधान सभा विधान सभा, प्रताप सिंह खाचरियावास, महेश जोश, रफीक खान, गंगा देवी, कालीचरण सराफ, प्रकाश राजपुरोहित, नागरिक उपयोगिताएँ, जयपुर विकास प्राधिकरण, जयपुर जल आपूर्ति और सीवरेज बोर्ड</t>
+  </si>
+  <si>
+    <t>स्टेपी जलवायु, कोप्पेन और गीगर वर्गीकरण, उत्तरी गोलार्ध सितंबर, मौसम अनुक्रम महीने जून से सितंबर, यात्रा महीने मार्च, अगस्त, अक्टूबर, नवंबर, वर्षा दिसंबर, औसत तापमान अगस्त</t>
+  </si>
+  <si>
+    <t>वाल्मीकि, गारो, बड़ी, अहेरिया, मदारी, चमार, हिंदी, अंग्रेजी, ढूंढारी, मारवाड़ी, हिंदू, मुस्लिम, जैन, शाकाहारी, मांसाहारी, ईश्वर में आस्था, पारंपरिक संगीत, नृत्य, मंदिर उत्सव, पूर्वजों की प्रथाएं</t>
+  </si>
+  <si>
+    <t>आरएसआरटीसी बस, महा लक्ष्मी ट्रेवल्स, राठौड़ टूर एंड ट्रेवल्स, श्री मंगल टूर्स ट्रेवल्स, कल्पना ट्रेवल्स, वेलकम राजस्थान टूर्स, राहुल टूर एंड ट्रेवल्स, श्री अंबिका ट्रेवल्स, जैन पार्श्वनाथ ट्रेवल्स, न्यू बाबू ट्रेवल्स, गीता टूर ट्रेवल्स, राजस्थान ट्रेवल सर्विस, जयपुर ट्रेवल्स, हरिवंश टूर्स, जयपुर अंतर्राष्ट्रीय हवाई अड्डा, दिल्ली सराय रोहिल्ला जयपुर एसी डबल डेकर एक्सप्रेस, पुरानी दिल्ली अहमदाबाद आश्रम एसएफ एक्सप्रेस, मुंबई बांद्रा टी गरीब रथ एक्सप्रेस, अजमेर पूजा एसएफ एक्सप्रेस, कॉर्बेट पार्क लिंक एक्सप्रेस</t>
+  </si>
+  <si>
+    <t>हवा महल, आमेर किला, जयगढ़ किला, सिटी पैलेस, अल्बर्ट हॉल संग्रहालय, जल महल, राजपूताना और मुगल साम्राज्य, जयपुर गार्डन, जयपुर जीवंत खरीदारी, भोजन, नाइटलाइफ़ दृश्य, अंबर महल, जंतर मंतर, शीश महल, बिड़ला मंदिर मंदिर, एलेजंगल</t>
+  </si>
+  <si>
+    <t>जयश्री पेड़ीवाल इंटरनेशनल स्कूल, महारानी गायत्री देवी पब्लिक स्कूल, नीरजा मोदी स्कूल, महाराजा सवाई मान सिंह विद्यालय, सेंट जेवियर्स सीनियर सेकेंडरी स्कूल, जयश्री पेड़ीवाल हाई स्कूल, माहेश्वरी पब्लिक स्कूल, स्प्रिंगडेल स्कूल, महाराजा सवाई भवानी सिंह स्कूल, दिल्ली पब्लिक स्कूल, जेईसीआरसी यूनिवर्सिटी, निम्स यूनिवर्सिटी, जयपुर नेशनल यूनिवर्सिटी, पूर्णिमा यूनिवर्सिटी, बियानी ग्रुप ऑफ कॉलेज, सुबोध कॉलेज</t>
+  </si>
+  <si>
+    <t>फोर्टिस एस्कॉर्ट्स हॉस्पिटल, एपेक्स हॉस्पिटल, एससीआर दाना शिवम हॉस्पिटल, मणिपाल हॉस्पिटल, अपोलो स्पेक्ट्रा हॉस्पिटल, शैलबी मल्टीस्पेशलिटी हॉस्पिटल</t>
+  </si>
+  <si>
+    <t>सिटी पार्क, कनक पार्क, रामनिवास गार्डन, सिसौदिया रानी बाग, विद्याधर गार्डन, सवाई मानसिंह स्टेडियम, सवाई मानसिंह इनडोर स्टेडियम, चौगान स्टेडियम, रेलवे क्रिकेट ग्राउंड, सरदार पटेल स्टेडियम, मेलबोर्न क्रिकेट ग्राउंड, राजस्थान रॉयल्स द्वारा आईपीएल, प्रो कबड्डी लीग जयपुर पिंक पैंथर्स द्वारा, एक नया क्रिकेट स्टेडियम, आईनॉक्स एलिमेंट्स मॉल, सिनेपोलिस ट्राइटन, कलास्थान राजमंदिर, गोलछा सिनेमा, पोलो विक्ट्री सिनेमा</t>
+  </si>
+  <si>
+    <t>बाणगंगा नदी, द्रव्यवती नदी, बांडी नदी, ढूंढ़ नदी, मोरल नदी, ग्रेनाइट बलुआ पत्थर स्लेट, अधात्विक खनिज, धात्विक खनिज संगमरमर, वायु प्रदूषण, जल प्रदूषण, ध्वनि प्रदूषण, जयपुर चिड़ियाघर, एलेजंगल</t>
+  </si>
+  <si>
+    <t>जौ, गेहूं, चना, दालें, तिलहन, बाजरा, ज्वार, मक्का, मूंगफली, अजमेर, झुंझुनू, जयपुर नींबू पाली, दौसा, बूंदी, जयपुर, सिरोही आम बांसवाड़ा, चित्तौड़गढ़, मवेशी नस्ल, ऊंट, भेड़, मोरेल, चंबल , बनास, कोई बड़े पैमाने पर विनिर्माण संयंत्र नहीं, जैविक और टिकाऊ खेती, ट्रैक्टर और थ्रेशिंग मशीनें, स्वचालन, त्वरित मशीनरी कमांड रिमोट, वास्तविक समय की निगरानी</t>
+  </si>
+  <si>
+    <t>विशाल भ्रष्टाचार, नकारात्मकता बिकती है, मरती हुई भाषा, पीने के पानी की समस्या, किसानों के मुद्दे, प्रकृति का प्रभाव, वायु प्रदूषण, श्रम गहन, अधिक कौशल हस्तक्षेप, फसल की खेती, मौसम की स्थिति का प्रभाव, बढ़ा हुआ शहरीकरण, नवाचार और प्रौद्योगिकी का प्रसार, युवाओं की भूख , चेक डैम की मांग की, बड़े तालाबों के जीर्णोद्धार की जरूरत है, पानी की समस्या का समाधान किया जाए</t>
+  </si>
+  <si>
+    <t>राष्ट्रीय स्वास्थ्य मिशन प्रजनन मातृ नवजात शिशु, किशोर स्वास्थ्य योजना, राष्ट्रीय बाल स्वास्थ्य कार्यक्रम, राष्ट्रीय किशोर स्वास्थ्य कार्यक्रम, जननी शिशु सुरक्षा कार्यक्रम, राष्ट्रीय एड्स नियंत्रण संगठन, संशोधित राष्ट्रीय टीबी नियंत्रण कार्यक्रम, राष्ट्रीय कुष्ठ उन्मूलन कार्यक्रम, मिशन इंद्रधनुष, पल्स पोलियो, प्रधान मंत्री स्वास्थ्य सुरक्षा योजना, राष्ट्रीय आरोग्य निधि, राष्ट्रीय तंबाकू नियंत्रण कार्यक्रम, एकीकृत बाल विकास सेवा, राष्ट्रीय स्वास्थ्य बीमा योजना, प्राथमिक स्वास्थ्य केंद्र, एम्बुलेंस सेवाएं, वेक्टर जनित रोगों पर जागरूकता अभियान</t>
+  </si>
+  <si>
+    <t>तीज, अंतर्राष्ट्रीय पतंग महोत्सव, जयपुर साहित्य महोत्सव, हाथी मेला, शीतकालीन महोत्सव, ग्रीष्म महोत्सव, उर्स महोत्सव, पुष्कर ऊंट मेला, राजस्थान अंतर्राष्ट्रीय लोक महोत्सव, कोलायत मेला, मेवाड़ महोत्सव, कुंभलगढ़ महोत्सव, बूंदी महोत्सव, मत्स्य महोत्सव, रेगिस्तान महोत्सव, नागौर पशु मेला, बाणेश्वर उत्सव, चंद्रभागा मेला, कोटा साहसिक उत्सव, गणगौर उत्सव, महाशिवरात्रि, अश्व पूजन, कबीर यात्रा, रामदेवरा मेला, पितृ दिवस, मातृ दिवस, स्वतंत्रता दिवस, गणतंत्र दिवस, शिक्षक दिवस</t>
+  </si>
+  <si>
+    <t>लैंगिक भेदभाव का सामना करना, गोरे रंग का जुनून, लिंग के आधार पर वेतन में असमानता, महिलाएं एक साथ कई काम करती हैं, अवांछित ध्यान आकर्षित करना, शादी का दबाव, अकेले यात्रा करने की अनुमति नहीं, पोशाक की लंबाई के आधार पर निर्णय, छेड़छाड़ सामान्य है, व्यावसायिक अलगाव, भारत में महिलाएं रोजाना लंबे समय तक काम करती हैं, महिलाओं की पारिवारिक जिम्मेदारियाँ, अपर्याप्त बुनियादी ढाँचा, सरकारी कर्तव्य, परिवहन की कमी, ख़राब बुनियादी ढाँचा, ख़राब सीखने के परिणाम, आधुनिक शिक्षण उपकरण, वित्त की कमी, संचार अंतराल, इंदिरा गांधी राष्ट्रीय विधवा पेंशन योजना, राष्ट्रीय क्रेच पोषण योजना</t>
+  </si>
+  <si>
+    <t>साथियों का दबाव, अवसाद, धमकाना, एकल माता-पिता द्वारा पाला जाना, माता-पिता का दबाव, आत्मविश्वास विकसित करना, आत्म-स्वीकृति, नशीली दवाओं और शराब का दुरुपयोग, गुणवत्तापूर्ण शिक्षा की कमी, किशोर अपराध, गरीबी, अपर्याप्त रोजगार के अवसर, मोटापा और अन्य स्वास्थ्य समस्याएं, भौतिकवाद, परिपक्वता कम उम्र में, ग्रामीण आजीविका मिशन, युवा कौशल प्रशिक्षण कार्यक्रम, उद्यम विकास कार्यक्रम, उद्यमिता जागरूकता कार्यक्रम, व्यवसाय के अवसरों की पहचान, निर्णय लेने की तकनीक, छात्रों, व्यावसायिक नेताओं को सकारात्मक ड्राइव करने के लिए प्रशिक्षण प्रदान करना, सीएम छात्रवृत्ति योजना, शिक्षा का अधिकार योजना</t>
+  </si>
+  <si>
+    <t>हीन भावना, उच्च रक्तचाप, आत्महत्या, आर्थिक रूप से अस्थिर व्यक्ति, अधिक हृदय रोगी, मधुमेह रोगी, नियंत्रण, धीमी गहरी सांस लो, अरोमाथेरेपी का उपयोग करें, शांतिदायक हर्बल चाय पीएं, ध्यान या प्रार्थना करें, व्यायाम से तनाव दूर करें, किसी विश्वसनीय मित्र से बात करें, कृतज्ञता का अभ्यास करें, संगीत सुनें, अटल पेंशन योजना, बाहर जाएं, व्यायाम करें या योग करें, कुछ रचनात्मक करें, दिमागी कसरत करें, कॉमेडी देखें, किताबें पढ़ें</t>
+  </si>
+  <si>
+    <t>दाल बाटी चूरमा, मिस्सी रोटी, गट्टे की सब्जी, लहसुन की चटनी, केर सांगरी, मक्के की घाट, बाजरे की घाट, बाजरे की रोटी, लाल मांस, घेवर, फीणी, मावा कचौरी, गजक, मीठी थूली, चौगुनी के लड्डू, मूंग थाल</t>
+  </si>
+  <si>
+    <t>गर्म हवा के गुब्बारे की सवारी, पैराग्लाइडिंग, साइकिल चलाना, कैम्पिंग, पानी के खेल, वन्यजीव सफारी, ज़िप लाइनिंग, ट्रैकिंग, जीप सफारी, क्रिकेट, कबड्डी, टेनिस, खो खो, कैरम, फुटबॉल, बास्केट बॉल, वॉली बॉल, सवाई मानसिंह स्टेडियम, सवाई मानसिंह इनडोर स्टेडियम, चौगान स्टेडियम, रेलवे क्रिकेट मैदान, सरदार पटेल स्टेडियम, मेलबोर्न क्रिकेट मैदान, राजस्थान रॉयल्स द्वारा आईपीएल, जयपुर पिंक पैंथर्स द्वारा प्रो कबड्डी लीग, एक नया क्रिकेट स्टेडियम</t>
+  </si>
+  <si>
+    <t>नीली मिट्टी के बर्तन, प्राचीन वस्तुएं, नक्काशीदार फर्नीचर, कागज की लुगदी, पिछवाई, स्थायी पेंटिंग, लघु पेंटिंग, परिधान, मूर्तियां, सहायक उपकरण, खिलौने, घर की सजावट, घरेलू सामान, हस्तनिर्मित कार्यालय सहायक उपकरण, पारंपरिक खेल</t>
+  </si>
+  <si>
+    <t>बाल संसार संस्था, फाउंडेशन फॉर एजुकेशन एंड डेवलपमेंट, तुशिता फाउंडेशन इंडिया, वात्सल्य सोसाइटीज, आख्यान, आकृति वेलफेयर सोसाइटी, आंचल सेवा संस्थान, आरोहिणी संस्थान, आयास फाउंडेशन, आजाद जनकल्याण संस्थान, ए ब्लेस ऑफ क्रिएटर सोसाइटी, एकेडमी फॉर सोशल हेल्प, आदर्श विकास संस्थान, आदर्श ज्ञान मंदिर संस्थान, आदर्श नवयुवक मंडल टोंगा जयपुर, अध्यापन, स्नेह भारत समाज, आदर्श और परिपक्व भारत के लिए प्रतिज्ञान, अहसास कला और सांस्कृतिक सामाजिक समाज, अक्स सेवा संस्थान, अल्फाला आर्थिक और सामाजिक कल्याण समाज, अलसाना रंग थिएटर सोसायटी, अमन आलाप संस्थान</t>
+  </si>
+  <si>
+    <t>विश्वविद्यालय, इंजीनियरिंग संस्थान, मेडिकल कॉलेज, पॉलिटेक्निक कॉलेज, अनुसंधान विज्ञापन विकास केंद्र, प्रीस्कूल, चाइल्डकैअर प्राथमिक प्राथमिक विद्यालय, नए कौशल सेट विकसित करें, अपने कार्यस्थल कौशल विकसित करें, नेतृत्व की जिम्मेदारियां उठाएं, अपने पेशेवर नेटवर्क का विस्तार करें, शिक्षा व्यक्तित्व विकास, बच्चों का विकास ज्ञान, अन्य देशों से संवाद, स्वास्थ्य प्रगति, कृषि नवाचार, सार्वजनिक प्रशासन, निजी क्षेत्र का विकास, संभावित मानव मस्तिष्क को उजागर करना, नैशनल मीन्स कम मेरिट स्कालर्शिप स्कीम</t>
+  </si>
+  <si>
+    <t>सरकारी हॉस्पिटल, बिस्तर सुविधाएं, निजी हॉस्पिटल, क्लीनिक, नर्सिंग होम, डायग्नोस्टिक सेंटर, स्वास्थ्य जागरूकता कार्यक्रम, घर में मुफ्त डायगोनस्टिक सेवाएं, मुफ्त दवाएं, गांवों में मुफ्त मासिक शिविर, रक्त सेवाएं, आपातकालीन वार्ड, प्राथमिक स्वास्थ्य केंद्र ग्रामीण शहरी, स्वास्थ्य उपकेंद्र, मोबाइल चिकित्सा इकाइयां, एम्बुलेंस सेवा</t>
+  </si>
+  <si>
+    <t>डिजिटल हाउस हंटिंग, समर हाउसिंग, ग्रेजुएट हाउसिंग, ऑफ-कैंपस हाउसिंग, विला, प्लॉट, हॉस्टल, गेस्टहाउस, महंगा किराया, नए रियल एस्टेट एजेंट, खरीदारों, विक्रेताओं, निवेशकों को प्रभावित करते हैं, डीडीए हाउसिंग स्कीम, एमबी सहायक अपार्टमेंट, साई अपार्टमेंट, आशियाना हाउसिंग लिमिटेड, यूनिक बिल्डर्स, मंगलम बिल्डर्स, महिमा ग्रुप, एजेडी ग्रुप, केडिया होम्स</t>
+  </si>
+  <si>
+    <t>राजस्थान पत्रिका, दैनिक भास्कर, प्रातःकाल, माणक, मेरा राजस्थान, ईटीवी राजस्थान, डीडी राजस्थान, जन टीवी, माय एफएम, रेडियो मिर्ची, रेड एफएम, रेडियो सिटी, ऑल इंडिया रेडियो, ज़ी टीवी, स्टार टीवी, सोनी टीवी, सहारा वन, दूरदर्शन राजस्थान, ईएसपीएन इंडिया, एनुमल प्लैनेट, स्टार्ट प्लस</t>
+  </si>
+  <si>
+    <t>इला अरुण, असरानी, ​​स्मिता बंसल, भारतीय अभिनेत्री, दौलत मल भंडारी, विक्रांत भार्गव, विश्व मोहन भट्ट, अपूर्वी चंदेला, अजय डेटा, गायत्री देवी, अंशू जैन, सैयद अकबर जयपुरी, हसरत जयपुरी, मुंगतू राम जयपुरिया, सेठ आनंदराम जयपुरिया, राजाराम जयपुरिया, रवि जयपुरिया, सिताराम, इरफान खान, हबीब मियां, आदित्य जे पटवर्धन, रवि कुमार पुनिया, जेसी रंधावा, कमल सिंह सरोहा, मान सिंह द्वितीय, आशीष शर्मा, शुभी शर्मा, सुनील वासवानी, हाफिज सलाउद्दीन यूसुफ</t>
+  </si>
+  <si>
+    <t>South delhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -923,8 +1409,16 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,14 +1431,58 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -958,10 +1496,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -970,7 +1508,7 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -979,6 +1517,54 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -994,6 +1580,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1201,7 +1799,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.63"/>
+    <col customWidth="1" min="2" max="2" width="37.5"/>
     <col customWidth="1" min="3" max="3" width="19.25"/>
   </cols>
   <sheetData>
@@ -1236,1135 +1834,1135 @@
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <v>2513.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>2514.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>2515.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>2516.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>2517.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
-        <v>2518.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
-        <v>2519.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
-        <v>2520.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
-        <v>2521.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
-        <v>2522.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
-        <v>2523.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
-        <v>2524.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
-        <v>2525.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
-        <v>2526.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
-        <v>2527.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
-        <v>2528.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
-        <v>2529.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
-        <v>2530.0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
-        <v>2531.0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
-        <v>2532.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
-        <v>2533.0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
-        <v>2534.0</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
-        <v>2535.0</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
-        <v>2536.0</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
-        <v>2537.0</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
-        <v>2538.0</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
-        <v>2539.0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
-        <v>2540.0</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
-        <v>2541.0</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
-        <v>2542.0</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
-        <v>2543.0</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
-        <v>2544.0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
-        <v>2545.0</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
-        <v>2546.0</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
-        <v>2547.0</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
-        <v>2548.0</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
-        <v>2549.0</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
-        <v>2550.0</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
-        <v>2551.0</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
-        <v>2552.0</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
-        <v>2553.0</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
-        <v>2554.0</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2402,7 +3000,7 @@
     </row>
     <row r="2">
       <c r="A2" s="8">
-        <v>2513.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>9</v>
@@ -2418,8 +3016,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <v>2514.0</v>
+      <c r="A3" s="12">
+        <v>2.0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>16</v>
@@ -2435,8 +3033,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>2515.0</v>
+      <c r="A4" s="12">
+        <v>3.0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>23</v>
@@ -2452,8 +3050,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>2516.0</v>
+      <c r="A5" s="12">
+        <v>4.0</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -2469,8 +3067,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
-        <v>2517.0</v>
+      <c r="A6" s="12">
+        <v>5.0</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>37</v>
@@ -2486,8 +3084,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
-        <v>2518.0</v>
+      <c r="A7" s="12">
+        <v>6.0</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>44</v>
@@ -2503,8 +3101,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
-        <v>2519.0</v>
+      <c r="A8" s="12">
+        <v>7.0</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>51</v>
@@ -2520,8 +3118,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
-        <v>2520.0</v>
+      <c r="A9" s="12">
+        <v>8.0</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>58</v>
@@ -2537,8 +3135,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
-        <v>2521.0</v>
+      <c r="A10" s="12">
+        <v>9.0</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>65</v>
@@ -2554,8 +3152,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>2522.0</v>
+      <c r="A11" s="12">
+        <v>10.0</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>72</v>
@@ -2571,8 +3169,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
-        <v>2523.0</v>
+      <c r="A12" s="12">
+        <v>11.0</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>79</v>
@@ -2588,8 +3186,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
-        <v>2524.0</v>
+      <c r="A13" s="12">
+        <v>12.0</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>86</v>
@@ -2605,8 +3203,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
-        <v>2525.0</v>
+      <c r="A14" s="12">
+        <v>13.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>93</v>
@@ -2622,8 +3220,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8">
-        <v>2526.0</v>
+      <c r="A15" s="12">
+        <v>14.0</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>100</v>
@@ -2639,8 +3237,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
-        <v>2527.0</v>
+      <c r="A16" s="12">
+        <v>15.0</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>107</v>
@@ -2656,8 +3254,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8">
-        <v>2528.0</v>
+      <c r="A17" s="12">
+        <v>16.0</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>114</v>
@@ -2673,8 +3271,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8">
-        <v>2529.0</v>
+      <c r="A18" s="12">
+        <v>17.0</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>121</v>
@@ -2690,8 +3288,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8">
-        <v>2530.0</v>
+      <c r="A19" s="12">
+        <v>18.0</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>128</v>
@@ -2707,8 +3305,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8">
-        <v>2531.0</v>
+      <c r="A20" s="12">
+        <v>19.0</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>135</v>
@@ -2724,8 +3322,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8">
-        <v>2532.0</v>
+      <c r="A21" s="12">
+        <v>20.0</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>141</v>
@@ -2741,8 +3339,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8">
-        <v>2533.0</v>
+      <c r="A22" s="12">
+        <v>21.0</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>148</v>
@@ -2758,8 +3356,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8">
-        <v>2534.0</v>
+      <c r="A23" s="12">
+        <v>22.0</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>155</v>
@@ -2775,8 +3373,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8">
-        <v>2535.0</v>
+      <c r="A24" s="12">
+        <v>23.0</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>162</v>
@@ -2792,8 +3390,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8">
-        <v>2536.0</v>
+      <c r="A25" s="12">
+        <v>24.0</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>168</v>
@@ -2809,8 +3407,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8">
-        <v>2537.0</v>
+      <c r="A26" s="12">
+        <v>25.0</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>175</v>
@@ -2826,8 +3424,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8">
-        <v>2538.0</v>
+      <c r="A27" s="12">
+        <v>26.0</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>181</v>
@@ -2843,8 +3441,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8">
-        <v>2539.0</v>
+      <c r="A28" s="12">
+        <v>27.0</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>187</v>
@@ -2860,8 +3458,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8">
-        <v>2540.0</v>
+      <c r="A29" s="12">
+        <v>28.0</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>194</v>
@@ -2877,8 +3475,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8">
-        <v>2541.0</v>
+      <c r="A30" s="12">
+        <v>29.0</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>200</v>
@@ -2894,8 +3492,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8">
-        <v>2542.0</v>
+      <c r="A31" s="12">
+        <v>30.0</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>207</v>
@@ -2911,8 +3509,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8">
-        <v>2543.0</v>
+      <c r="A32" s="12">
+        <v>31.0</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>213</v>
@@ -2928,8 +3526,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8">
-        <v>2544.0</v>
+      <c r="A33" s="12">
+        <v>32.0</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>219</v>
@@ -2945,8 +3543,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8">
-        <v>2545.0</v>
+      <c r="A34" s="12">
+        <v>33.0</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>223</v>
@@ -2962,8 +3560,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8">
-        <v>2546.0</v>
+      <c r="A35" s="12">
+        <v>34.0</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>230</v>
@@ -2979,8 +3577,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8">
-        <v>2547.0</v>
+      <c r="A36" s="12">
+        <v>35.0</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>237</v>
@@ -2996,8 +3594,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8">
-        <v>2548.0</v>
+      <c r="A37" s="12">
+        <v>36.0</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>244</v>
@@ -3013,8 +3611,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8">
-        <v>2549.0</v>
+      <c r="A38" s="12">
+        <v>37.0</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>251</v>
@@ -3030,8 +3628,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8">
-        <v>2550.0</v>
+      <c r="A39" s="12">
+        <v>38.0</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>258</v>
@@ -3047,8 +3645,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8">
-        <v>2551.0</v>
+      <c r="A40" s="12">
+        <v>39.0</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>265</v>
@@ -3064,8 +3662,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8">
-        <v>2552.0</v>
+      <c r="A41" s="12">
+        <v>40.0</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>272</v>
@@ -3081,8 +3679,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8">
-        <v>2553.0</v>
+      <c r="A42" s="12">
+        <v>41.0</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>279</v>
@@ -3098,8 +3696,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8">
-        <v>2554.0</v>
+      <c r="A43" s="12">
+        <v>42.0</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>284</v>
@@ -3112,6 +3710,2244 @@
       </c>
       <c r="E43" s="11" t="s">
         <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
